--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/38_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/38_11R22.xlsx
@@ -689,67 +689,67 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2245404626637236</v>
+        <v>0.2594822623451014</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2466157559167747</v>
+        <v>0.2863100281854559</v>
       </c>
       <c r="G2">
-        <v>0.02324395745814104</v>
+        <v>0.01484970212347569</v>
       </c>
       <c r="H2">
-        <v>0.01102484346084033</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007060589769431676</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.04264540703636369</v>
+        <v>0.03842798669172542</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.03487481094254402</v>
+        <v>0.02898450025395615</v>
       </c>
       <c r="N2">
-        <v>0.01661708230569666</v>
+        <v>0.006796162231385282</v>
       </c>
       <c r="O2">
-        <v>0.09855010292181238</v>
+        <v>0.1063681075045601</v>
       </c>
       <c r="P2">
-        <v>0.003581871297669349</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.04681716196495131</v>
+        <v>0.04349785657225463</v>
       </c>
       <c r="S2">
-        <v>0.03339173183945819</v>
+        <v>0.02718213693111285</v>
       </c>
       <c r="T2">
-        <v>0.1236218933404306</v>
+        <v>0.1368374704633588</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.02821729392300886</v>
+        <v>0.02089372177002465</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01198309711827357</v>
+        <v>0.001164550995657963</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -761,16 +761,16 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.001132421987768114</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.03395602478096149</v>
+        <v>0.02786791350161992</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01212549127215041</v>
+        <v>0.001337600430311131</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -799,40 +799,40 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1092139080824761</v>
+        <v>0.1209677177294262</v>
       </c>
       <c r="E3">
-        <v>0.01307609815153977</v>
+        <v>0.001530384074710471</v>
       </c>
       <c r="F3">
-        <v>0.2384122025684675</v>
+        <v>0.281477925078949</v>
       </c>
       <c r="G3">
-        <v>0.08811208201302653</v>
+        <v>0.09475174876995865</v>
       </c>
       <c r="H3">
-        <v>0.02522478480193096</v>
+        <v>0.01662337133926062</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0399692064147693</v>
+        <v>0.03494118412263348</v>
       </c>
       <c r="K3">
-        <v>0.01184425741302176</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01083750974939677</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.01431099158325683</v>
+        <v>0.003064560679502734</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1446997843171115</v>
+        <v>0.1650537900344939</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01838974556510289</v>
+        <v>0.008131822983222901</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1557099029428532</v>
+        <v>0.1787322710902346</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.03153287108811483</v>
+        <v>0.02446025681675303</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03112684788084287</v>
+        <v>0.02395583166588537</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04911952756170425</v>
+        <v>0.04630913561496917</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0116508895647884</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.006769390301596481</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -909,40 +909,40 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.125873389343547</v>
+        <v>0.1274306401316332</v>
       </c>
       <c r="E4">
-        <v>0.06156130028295294</v>
+        <v>0.06175116199598285</v>
       </c>
       <c r="F4">
-        <v>0.2037324956035076</v>
+        <v>0.2069451690788155</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.04667096009309056</v>
+        <v>0.04654422676470755</v>
       </c>
       <c r="I4">
-        <v>0.001095743268650196</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.07363831941742092</v>
+        <v>0.07408495997662015</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01703866631914146</v>
+        <v>0.01628189787034458</v>
       </c>
       <c r="N4">
-        <v>0.06508322712985615</v>
+        <v>0.06534797125401511</v>
       </c>
       <c r="O4">
-        <v>0.09025767433243059</v>
+        <v>0.09105767185261825</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,25 +951,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01755725582783682</v>
+        <v>0.01681151351174667</v>
       </c>
       <c r="S4">
-        <v>0.0634631078128218</v>
+        <v>0.06369340532691475</v>
       </c>
       <c r="T4">
-        <v>0.1031375905962124</v>
+        <v>0.1042114379795283</v>
       </c>
       <c r="U4">
-        <v>0.008766330566296488</v>
+        <v>0.00783367758787439</v>
       </c>
       <c r="V4">
-        <v>0.02086963555883503</v>
+        <v>0.02019432031054449</v>
       </c>
       <c r="W4">
-        <v>0.005433833526532619</v>
+        <v>0.00443032575064721</v>
       </c>
       <c r="X4">
-        <v>0.02072160506035448</v>
+        <v>0.02004314242112464</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03814743653367505</v>
+        <v>0.03783947797740139</v>
       </c>
       <c r="AC4">
-        <v>0.03038282534581596</v>
+        <v>0.02990977738465086</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.006568603381021787</v>
+        <v>0.005589222824830173</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1022,40 +1022,40 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1405605563332582</v>
+        <v>0.1468271685082267</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3445986138953814</v>
+        <v>0.3677456167182964</v>
       </c>
       <c r="H5">
-        <v>0.03877587051962689</v>
+        <v>0.03662167493431045</v>
       </c>
       <c r="I5">
-        <v>0.02040297400915234</v>
+        <v>0.01672875968744563</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01539987849240836</v>
+        <v>0.01131175017945562</v>
       </c>
       <c r="L5">
-        <v>0.004686578147048289</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.004952459759639437</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.01594083104780113</v>
+        <v>0.01189745659383988</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1149383457431167</v>
+        <v>0.1190851919822923</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,25 +1064,25 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02666178769313428</v>
+        <v>0.02350537490924197</v>
       </c>
       <c r="T5">
-        <v>0.001589975673797462</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.1381384482191156</v>
+        <v>0.1442046755656515</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0398854728487659</v>
+        <v>0.03782307641603665</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02174843286328864</v>
+        <v>0.01818553047686462</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1097,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.05746606888438464</v>
+        <v>0.05685814291883589</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.01345464191568728</v>
+        <v>0.009205581109502344</v>
       </c>
       <c r="AG5">
-        <v>0.0007990639543934017</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07042739895204872</v>
+        <v>0.06962674812938867</v>
       </c>
       <c r="E6">
-        <v>0.03205829710783797</v>
+        <v>0.03248779216976278</v>
       </c>
       <c r="F6">
-        <v>0.1471977695736653</v>
+        <v>0.143935795682728</v>
       </c>
       <c r="G6">
-        <v>0.2012459657955551</v>
+        <v>0.1962511609819251</v>
       </c>
       <c r="H6">
-        <v>0.0006922894745774078</v>
+        <v>0.002127405292562088</v>
       </c>
       <c r="I6">
-        <v>0.05029402830891892</v>
+        <v>0.05013887039198361</v>
       </c>
       <c r="J6">
-        <v>0.02345071888012836</v>
+        <v>0.02415618018635183</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.030956413239855</v>
+        <v>0.03142123563133246</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1162,58 +1162,58 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1065033537041897</v>
+        <v>0.1045460772338665</v>
       </c>
       <c r="P6">
-        <v>0.008180979710140991</v>
+        <v>0.009376001779994338</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.009739669333319502</v>
+        <v>0.01088471849442238</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1097941207006038</v>
+        <v>0.10773133945474</v>
       </c>
       <c r="U6">
-        <v>0.03439929375418554</v>
+        <v>0.0347537344819739</v>
       </c>
       <c r="V6">
-        <v>0.02615838620306033</v>
+        <v>0.02677703740286917</v>
       </c>
       <c r="W6">
-        <v>0.009701269068494625</v>
+        <v>0.01084754937459363</v>
       </c>
       <c r="X6">
-        <v>0.01275884970287586</v>
+        <v>0.01380710138559342</v>
       </c>
       <c r="Y6">
-        <v>0.02644788124685264</v>
+        <v>0.02705725099049983</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.002852814253826621</v>
+        <v>0.004218661818503515</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0795897124362136</v>
+        <v>0.07849531008734933</v>
       </c>
       <c r="AD6">
-        <v>0.003363386631496033</v>
+        <v>0.004712864813545131</v>
       </c>
       <c r="AE6">
-        <v>0.007617725567125018</v>
+        <v>0.008830806041598306</v>
       </c>
       <c r="AF6">
-        <v>0.006569676355028987</v>
+        <v>0.007816358174416135</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1239,40 +1239,40 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06295237744712191</v>
+        <v>0.06344134805539126</v>
       </c>
       <c r="E7">
-        <v>0.05541533259736262</v>
+        <v>0.05539252241577317</v>
       </c>
       <c r="F7">
-        <v>0.1639294639832617</v>
+        <v>0.1712749856848626</v>
       </c>
       <c r="G7">
-        <v>0.1439520688500748</v>
+        <v>0.1499410844853876</v>
       </c>
       <c r="H7">
-        <v>0.001973116967109648</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01526415833360998</v>
+        <v>0.01251500114360144</v>
       </c>
       <c r="K7">
-        <v>0.001963529475710923</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.007807912588773026</v>
+        <v>0.004552461033699663</v>
       </c>
       <c r="M7">
-        <v>0.003544917647140277</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1326531078495745</v>
+        <v>0.1378749008796504</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1281,28 +1281,28 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.06984577822836728</v>
+        <v>0.07080282487531797</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1846337485114733</v>
+        <v>0.1933851335587922</v>
       </c>
       <c r="U7">
-        <v>0.01669467588081783</v>
+        <v>0.01404265376361442</v>
       </c>
       <c r="V7">
-        <v>0.03629119283684695</v>
+        <v>0.03496981437722483</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.02447259607489887</v>
+        <v>0.02234871067702421</v>
       </c>
       <c r="Y7">
-        <v>0.007874335068628922</v>
+        <v>0.004623393736047616</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.06103669077340989</v>
+        <v>0.06139558233099856</v>
       </c>
       <c r="AD7">
-        <v>0.002231940493809344</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.0006972600272538557</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.0067657963647542</v>
+        <v>0.003439582982614084</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1155352812826572</v>
+        <v>0.1114269029128025</v>
       </c>
       <c r="E8">
-        <v>0.01949368907930446</v>
+        <v>0.02162601000861368</v>
       </c>
       <c r="F8">
-        <v>0.2910036898914736</v>
+        <v>0.2754935266333397</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04659131260501412</v>
+        <v>0.04696285347782611</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03813633551722396</v>
+        <v>0.03905727346244701</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1379,37 +1379,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1123018370650395</v>
+        <v>0.1084035650938797</v>
       </c>
       <c r="O8">
-        <v>0.02530866783646262</v>
+        <v>0.02706313649341871</v>
       </c>
       <c r="P8">
-        <v>0.008734320887634124</v>
+        <v>0.01156577622311846</v>
       </c>
       <c r="Q8">
-        <v>0.0241945443154504</v>
+        <v>0.02602140775176459</v>
       </c>
       <c r="R8">
-        <v>0.04673622246377201</v>
+        <v>0.04709834721974081</v>
       </c>
       <c r="S8">
-        <v>0.08008119291059333</v>
+        <v>0.0782765904297051</v>
       </c>
       <c r="T8">
-        <v>0.08625367662929452</v>
+        <v>0.08404799151395934</v>
       </c>
       <c r="U8">
-        <v>0.01390259977521901</v>
+        <v>0.01639822483455234</v>
       </c>
       <c r="V8">
-        <v>0.00910706384992307</v>
+        <v>0.01191429867125142</v>
       </c>
       <c r="W8">
-        <v>0.002560054624224367</v>
+        <v>0.005792708422363596</v>
       </c>
       <c r="X8">
-        <v>0.01085190222489251</v>
+        <v>0.01354575896310068</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.02437749588349934</v>
+        <v>0.02619247128572007</v>
       </c>
       <c r="AC8">
-        <v>0.03197663099017585</v>
+        <v>0.0332978211890643</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.0128534821681463</v>
+        <v>0.0154172779789738</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.0003980574343581521</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01139518642935993</v>
+        <v>0.01679973142022475</v>
       </c>
       <c r="E9">
-        <v>0.09511480073388215</v>
+        <v>0.08873183037296804</v>
       </c>
       <c r="F9">
-        <v>0.08178607362907149</v>
+        <v>0.0772797551934296</v>
       </c>
       <c r="G9">
-        <v>0.2381518598244462</v>
+        <v>0.2116296240845675</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03403069040713336</v>
+        <v>0.03624821222726621</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.03569835799472987</v>
+        <v>0.03768107632880083</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1492,58 +1492,58 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1276651756653285</v>
+        <v>0.1166991927404177</v>
       </c>
       <c r="P9">
-        <v>0.01517823212007197</v>
+        <v>0.02005013360169238</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.004070047307314271</v>
       </c>
       <c r="R9">
-        <v>0.0414634520652396</v>
+        <v>0.04263445936331129</v>
       </c>
       <c r="S9">
-        <v>0.03031008284882788</v>
+        <v>0.03305145704305248</v>
       </c>
       <c r="T9">
-        <v>0.09284367089491811</v>
+        <v>0.08678047001771538</v>
       </c>
       <c r="U9">
-        <v>0.05595115757990944</v>
+        <v>0.05508233164911498</v>
       </c>
       <c r="V9">
-        <v>0.0265810625270039</v>
+        <v>0.02984747359168887</v>
       </c>
       <c r="W9">
-        <v>0.01383068701728028</v>
+        <v>0.01889231952810245</v>
       </c>
       <c r="X9">
-        <v>0.006519887308040937</v>
+        <v>0.01261086239912132</v>
       </c>
       <c r="Y9">
-        <v>0.01929667848826276</v>
+        <v>0.02358871287190605</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.002354460693299739</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.05768299746125785</v>
+        <v>0.05657033274360559</v>
       </c>
       <c r="AD9">
-        <v>0.01649994700523564</v>
+        <v>0.02118575428863301</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.0007707756508118532</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.003360093519460246</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.00408089336349522</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04398220801573765</v>
+        <v>0.04306179413255217</v>
       </c>
       <c r="E10">
-        <v>0.05476230738251157</v>
+        <v>0.05449062754058685</v>
       </c>
       <c r="F10">
-        <v>0.134209182540239</v>
+        <v>0.1387185247124031</v>
       </c>
       <c r="G10">
-        <v>0.1695608793288691</v>
+        <v>0.1761976461511063</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1587,22 +1587,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02903486186240794</v>
+        <v>0.02721493379607308</v>
       </c>
       <c r="K10">
-        <v>0.003364727378201485</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.02439710211968503</v>
+        <v>0.02229807898029673</v>
       </c>
       <c r="M10">
-        <v>0.001671322332230033</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1634136741371206</v>
+        <v>0.1696805091868555</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1611,28 +1611,28 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.07436860298060896</v>
+        <v>0.0752768075669029</v>
       </c>
       <c r="S10">
-        <v>0.001255967038751697</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.1425258265971363</v>
+        <v>0.1475356548896219</v>
       </c>
       <c r="U10">
-        <v>0.02236366979670446</v>
+        <v>0.0201422770275349</v>
       </c>
       <c r="V10">
-        <v>0.03703072794210908</v>
+        <v>0.0356919819445826</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.01725388627806551</v>
+        <v>0.01472499258527447</v>
       </c>
       <c r="Y10">
-        <v>0.00957620429828069</v>
+        <v>0.00658527649162868</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.06307018322407081</v>
+        <v>0.06329846184130453</v>
       </c>
       <c r="AD10">
-        <v>0.008158666747270187</v>
+        <v>0.005082433153276338</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1679,28 +1679,28 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1377407053596326</v>
+        <v>0.1448880455028922</v>
       </c>
       <c r="E11">
-        <v>0.023156824682081</v>
+        <v>0.02106421236567234</v>
       </c>
       <c r="F11">
-        <v>0.351047680548139</v>
+        <v>0.3753959245044212</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.003664460933334285</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02089330767934182</v>
+        <v>0.01861816716286446</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.02483575144988101</v>
+        <v>0.0228785264447242</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1709,58 +1709,58 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.06743843829829523</v>
+        <v>0.06891665987433107</v>
       </c>
       <c r="O11">
-        <v>0.01696504918153267</v>
+        <v>0.01437313704277812</v>
       </c>
       <c r="P11">
-        <v>0.000976743323622919</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.009511283109004525</v>
+        <v>0.00631830523789394</v>
       </c>
       <c r="R11">
-        <v>0.02694418537264194</v>
+        <v>0.02515698279206582</v>
       </c>
       <c r="S11">
-        <v>0.06806928027990537</v>
+        <v>0.06959837244860376</v>
       </c>
       <c r="T11">
-        <v>0.1021409127087768</v>
+        <v>0.1064175140559432</v>
       </c>
       <c r="U11">
-        <v>0.006370907535947037</v>
+        <v>0.002924692291228811</v>
       </c>
       <c r="V11">
-        <v>0.02397286020148779</v>
+        <v>0.02194605233645687</v>
       </c>
       <c r="W11">
-        <v>0.003215445334288115</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.03380448248548959</v>
+        <v>0.03257048877519335</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.002478810401355191</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04777445491400359</v>
+        <v>0.04766698860301574</v>
       </c>
       <c r="AC11">
-        <v>0.01731904746481688</v>
+        <v>0.01475568146439355</v>
       </c>
       <c r="AD11">
-        <v>0.0006451040223672299</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.009688903779848931</v>
+        <v>0.00651024909752155</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.001345360934206387</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2245404626637236</v>
+        <v>0.2594822623451014</v>
       </c>
       <c r="E2">
-        <v>0.2245404626637236</v>
+        <v>0.2594822623451014</v>
       </c>
       <c r="F2">
-        <v>0.4711562185804984</v>
+        <v>0.5457922905305573</v>
       </c>
       <c r="G2">
-        <v>0.4944001760386394</v>
+        <v>0.560641992654033</v>
       </c>
       <c r="H2">
-        <v>0.5054250194994798</v>
+        <v>0.560641992654033</v>
       </c>
       <c r="I2">
-        <v>0.5054250194994798</v>
+        <v>0.560641992654033</v>
       </c>
       <c r="J2">
-        <v>0.5124856092689115</v>
+        <v>0.560641992654033</v>
       </c>
       <c r="K2">
-        <v>0.5551310163052752</v>
+        <v>0.5990699793457585</v>
       </c>
       <c r="L2">
-        <v>0.5551310163052752</v>
+        <v>0.5990699793457585</v>
       </c>
       <c r="M2">
-        <v>0.5900058272478192</v>
+        <v>0.6280544795997146</v>
       </c>
       <c r="N2">
-        <v>0.6066229095535159</v>
+        <v>0.6348506418310998</v>
       </c>
       <c r="O2">
-        <v>0.7051730124753284</v>
+        <v>0.74121874933566</v>
       </c>
       <c r="P2">
-        <v>0.7087548837729978</v>
+        <v>0.74121874933566</v>
       </c>
       <c r="Q2">
-        <v>0.7087548837729978</v>
+        <v>0.74121874933566</v>
       </c>
       <c r="R2">
-        <v>0.7555720457379491</v>
+        <v>0.7847166059079146</v>
       </c>
       <c r="S2">
-        <v>0.7889637775774073</v>
+        <v>0.8118987428390274</v>
       </c>
       <c r="T2">
-        <v>0.9125856709178379</v>
+        <v>0.9487362133023862</v>
       </c>
       <c r="U2">
-        <v>0.9125856709178379</v>
+        <v>0.9487362133023862</v>
       </c>
       <c r="V2">
-        <v>0.9408029648408468</v>
+        <v>0.9696299350724109</v>
       </c>
       <c r="W2">
-        <v>0.9408029648408468</v>
+        <v>0.9696299350724109</v>
       </c>
       <c r="X2">
-        <v>0.9527860619591204</v>
+        <v>0.9707944860680688</v>
       </c>
       <c r="Y2">
-        <v>0.9527860619591204</v>
+        <v>0.9707944860680688</v>
       </c>
       <c r="Z2">
-        <v>0.9527860619591204</v>
+        <v>0.9707944860680688</v>
       </c>
       <c r="AA2">
-        <v>0.9527860619591204</v>
+        <v>0.9707944860680688</v>
       </c>
       <c r="AB2">
-        <v>0.9539184839468885</v>
+        <v>0.9707944860680688</v>
       </c>
       <c r="AC2">
-        <v>0.98787450872785</v>
+        <v>0.9986623995696887</v>
       </c>
       <c r="AD2">
-        <v>0.98787450872785</v>
+        <v>0.9986623995696887</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1092139080824761</v>
+        <v>0.1209677177294262</v>
       </c>
       <c r="E3">
-        <v>0.1222900062340158</v>
+        <v>0.1224981018041367</v>
       </c>
       <c r="F3">
-        <v>0.3607022088024833</v>
+        <v>0.4039760268830857</v>
       </c>
       <c r="G3">
-        <v>0.4488142908155098</v>
+        <v>0.4987277756530444</v>
       </c>
       <c r="H3">
-        <v>0.4740390756174408</v>
+        <v>0.515351146992305</v>
       </c>
       <c r="I3">
-        <v>0.4740390756174408</v>
+        <v>0.515351146992305</v>
       </c>
       <c r="J3">
-        <v>0.5140082820322101</v>
+        <v>0.5502923311149385</v>
       </c>
       <c r="K3">
-        <v>0.5258525394452318</v>
+        <v>0.5502923311149385</v>
       </c>
       <c r="L3">
-        <v>0.5366900491946286</v>
+        <v>0.5502923311149385</v>
       </c>
       <c r="M3">
-        <v>0.5510010407778855</v>
+        <v>0.5533568917944413</v>
       </c>
       <c r="N3">
-        <v>0.5510010407778855</v>
+        <v>0.5533568917944413</v>
       </c>
       <c r="O3">
-        <v>0.695700825094997</v>
+        <v>0.7184106818289351</v>
       </c>
       <c r="P3">
-        <v>0.695700825094997</v>
+        <v>0.7184106818289351</v>
       </c>
       <c r="Q3">
-        <v>0.695700825094997</v>
+        <v>0.7184106818289351</v>
       </c>
       <c r="R3">
-        <v>0.7140905706600998</v>
+        <v>0.726542504812158</v>
       </c>
       <c r="S3">
-        <v>0.7140905706600998</v>
+        <v>0.726542504812158</v>
       </c>
       <c r="T3">
-        <v>0.869800473602953</v>
+        <v>0.9052747759023926</v>
       </c>
       <c r="U3">
-        <v>0.869800473602953</v>
+        <v>0.9052747759023926</v>
       </c>
       <c r="V3">
-        <v>0.9013333446910679</v>
+        <v>0.9297350327191456</v>
       </c>
       <c r="W3">
-        <v>0.9013333446910679</v>
+        <v>0.9297350327191456</v>
       </c>
       <c r="X3">
-        <v>0.9324601925719107</v>
+        <v>0.9536908643850309</v>
       </c>
       <c r="Y3">
-        <v>0.9324601925719107</v>
+        <v>0.9536908643850309</v>
       </c>
       <c r="Z3">
-        <v>0.9324601925719107</v>
+        <v>0.9536908643850309</v>
       </c>
       <c r="AA3">
-        <v>0.9324601925719107</v>
+        <v>0.9536908643850309</v>
       </c>
       <c r="AB3">
-        <v>0.9324601925719107</v>
+        <v>0.9536908643850309</v>
       </c>
       <c r="AC3">
-        <v>0.9815797201336149</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9815797201336149</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9932306096984034</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.125873389343547</v>
+        <v>0.1274306401316332</v>
       </c>
       <c r="E4">
-        <v>0.1874346896265</v>
+        <v>0.1891818021276161</v>
       </c>
       <c r="F4">
-        <v>0.3911671852300076</v>
+        <v>0.3961269712064316</v>
       </c>
       <c r="G4">
-        <v>0.3911671852300076</v>
+        <v>0.3961269712064316</v>
       </c>
       <c r="H4">
-        <v>0.4378381453230982</v>
+        <v>0.4426711979711391</v>
       </c>
       <c r="I4">
-        <v>0.4389338885917484</v>
+        <v>0.4426711979711391</v>
       </c>
       <c r="J4">
-        <v>0.4389338885917484</v>
+        <v>0.4426711979711391</v>
       </c>
       <c r="K4">
-        <v>0.5125722080091693</v>
+        <v>0.5167561579477593</v>
       </c>
       <c r="L4">
-        <v>0.5125722080091693</v>
+        <v>0.5167561579477593</v>
       </c>
       <c r="M4">
-        <v>0.5296108743283107</v>
+        <v>0.5330380558181039</v>
       </c>
       <c r="N4">
-        <v>0.5946941014581668</v>
+        <v>0.5983860270721191</v>
       </c>
       <c r="O4">
-        <v>0.6849517757905974</v>
+        <v>0.6894436989247373</v>
       </c>
       <c r="P4">
-        <v>0.6849517757905974</v>
+        <v>0.6894436989247373</v>
       </c>
       <c r="Q4">
-        <v>0.6849517757905974</v>
+        <v>0.6894436989247373</v>
       </c>
       <c r="R4">
-        <v>0.7025090316184343</v>
+        <v>0.706255212436484</v>
       </c>
       <c r="S4">
-        <v>0.7659721394312561</v>
+        <v>0.7699486177633987</v>
       </c>
       <c r="T4">
-        <v>0.8691097300274685</v>
+        <v>0.8741600557429271</v>
       </c>
       <c r="U4">
-        <v>0.877876060593765</v>
+        <v>0.8819937333308014</v>
       </c>
       <c r="V4">
-        <v>0.8987456961526</v>
+        <v>0.9021880536413459</v>
       </c>
       <c r="W4">
-        <v>0.9041795296791326</v>
+        <v>0.9066183793919931</v>
       </c>
       <c r="X4">
-        <v>0.9249011347394871</v>
+        <v>0.9266615218131177</v>
       </c>
       <c r="Y4">
-        <v>0.9249011347394871</v>
+        <v>0.9266615218131177</v>
       </c>
       <c r="Z4">
-        <v>0.9249011347394871</v>
+        <v>0.9266615218131177</v>
       </c>
       <c r="AA4">
-        <v>0.9249011347394871</v>
+        <v>0.9266615218131177</v>
       </c>
       <c r="AB4">
-        <v>0.9630485712731621</v>
+        <v>0.9645009997905191</v>
       </c>
       <c r="AC4">
-        <v>0.9934313966189781</v>
+        <v>0.9944107771751699</v>
       </c>
       <c r="AD4">
-        <v>0.9934313966189781</v>
+        <v>0.9944107771751699</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2245,100 +2245,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1405605563332582</v>
+        <v>0.1468271685082267</v>
       </c>
       <c r="F5">
-        <v>0.1405605563332582</v>
+        <v>0.1468271685082267</v>
       </c>
       <c r="G5">
-        <v>0.4851591702286396</v>
+        <v>0.5145727852265231</v>
       </c>
       <c r="H5">
-        <v>0.5239350407482666</v>
+        <v>0.5511944601608335</v>
       </c>
       <c r="I5">
-        <v>0.5443380147574189</v>
+        <v>0.5679232198482791</v>
       </c>
       <c r="J5">
-        <v>0.5443380147574189</v>
+        <v>0.5679232198482791</v>
       </c>
       <c r="K5">
-        <v>0.5597378932498273</v>
+        <v>0.5792349700277347</v>
       </c>
       <c r="L5">
-        <v>0.5644244713968756</v>
+        <v>0.5792349700277347</v>
       </c>
       <c r="M5">
-        <v>0.569376931156515</v>
+        <v>0.5792349700277347</v>
       </c>
       <c r="N5">
-        <v>0.5853177622043161</v>
+        <v>0.5911324266215746</v>
       </c>
       <c r="O5">
-        <v>0.5853177622043161</v>
+        <v>0.5911324266215746</v>
       </c>
       <c r="P5">
-        <v>0.7002561079474329</v>
+        <v>0.7102176186038669</v>
       </c>
       <c r="Q5">
-        <v>0.7002561079474329</v>
+        <v>0.7102176186038669</v>
       </c>
       <c r="R5">
-        <v>0.7002561079474329</v>
+        <v>0.7102176186038669</v>
       </c>
       <c r="S5">
-        <v>0.7269178956405672</v>
+        <v>0.7337229935131089</v>
       </c>
       <c r="T5">
-        <v>0.7285078713143647</v>
+        <v>0.7337229935131089</v>
       </c>
       <c r="U5">
-        <v>0.8666463195334803</v>
+        <v>0.8779276690787604</v>
       </c>
       <c r="V5">
-        <v>0.8666463195334803</v>
+        <v>0.8779276690787604</v>
       </c>
       <c r="W5">
-        <v>0.9065317923822461</v>
+        <v>0.9157507454947971</v>
       </c>
       <c r="X5">
-        <v>0.9065317923822461</v>
+        <v>0.9157507454947971</v>
       </c>
       <c r="Y5">
-        <v>0.9282802252455348</v>
+        <v>0.9339362759716617</v>
       </c>
       <c r="Z5">
-        <v>0.9282802252455348</v>
+        <v>0.9339362759716617</v>
       </c>
       <c r="AA5">
-        <v>0.9282802252455348</v>
+        <v>0.9339362759716617</v>
       </c>
       <c r="AB5">
-        <v>0.9282802252455348</v>
+        <v>0.9339362759716617</v>
       </c>
       <c r="AC5">
-        <v>0.9282802252455348</v>
+        <v>0.9339362759716617</v>
       </c>
       <c r="AD5">
-        <v>0.9857462941299194</v>
+        <v>0.9907944188904976</v>
       </c>
       <c r="AE5">
-        <v>0.9857462941299194</v>
+        <v>0.9907944188904976</v>
       </c>
       <c r="AF5">
-        <v>0.9992009360456067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,88 +2352,88 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07042739895204872</v>
+        <v>0.06962674812938867</v>
       </c>
       <c r="E6">
-        <v>0.1024856960598867</v>
+        <v>0.1021145402991515</v>
       </c>
       <c r="F6">
-        <v>0.249683465633552</v>
+        <v>0.2460503359818794</v>
       </c>
       <c r="G6">
-        <v>0.4509294314291071</v>
+        <v>0.4423014969638046</v>
       </c>
       <c r="H6">
-        <v>0.4516217209036845</v>
+        <v>0.4444289022563667</v>
       </c>
       <c r="I6">
-        <v>0.5019157492126034</v>
+        <v>0.4945677726483503</v>
       </c>
       <c r="J6">
-        <v>0.5253664680927318</v>
+        <v>0.5187239528347021</v>
       </c>
       <c r="K6">
-        <v>0.5253664680927318</v>
+        <v>0.5187239528347021</v>
       </c>
       <c r="L6">
-        <v>0.5563228813325868</v>
+        <v>0.5501451884660346</v>
       </c>
       <c r="M6">
-        <v>0.5563228813325868</v>
+        <v>0.5501451884660346</v>
       </c>
       <c r="N6">
-        <v>0.5563228813325868</v>
+        <v>0.5501451884660346</v>
       </c>
       <c r="O6">
-        <v>0.6628262350367765</v>
+        <v>0.654691265699901</v>
       </c>
       <c r="P6">
-        <v>0.6710072147469175</v>
+        <v>0.6640672674798953</v>
       </c>
       <c r="Q6">
-        <v>0.6710072147469175</v>
+        <v>0.6640672674798953</v>
       </c>
       <c r="R6">
-        <v>0.680746884080237</v>
+        <v>0.6749519859743177</v>
       </c>
       <c r="S6">
-        <v>0.680746884080237</v>
+        <v>0.6749519859743177</v>
       </c>
       <c r="T6">
-        <v>0.7905410047808408</v>
+        <v>0.7826833254290577</v>
       </c>
       <c r="U6">
-        <v>0.8249402985350263</v>
+        <v>0.8174370599110317</v>
       </c>
       <c r="V6">
-        <v>0.8510986847380866</v>
+        <v>0.8442140973139008</v>
       </c>
       <c r="W6">
-        <v>0.8607999538065813</v>
+        <v>0.8550616466884945</v>
       </c>
       <c r="X6">
-        <v>0.8735588035094571</v>
+        <v>0.8688687480740879</v>
       </c>
       <c r="Y6">
-        <v>0.9000066847563097</v>
+        <v>0.8959259990645877</v>
       </c>
       <c r="Z6">
-        <v>0.9000066847563097</v>
+        <v>0.8959259990645877</v>
       </c>
       <c r="AA6">
-        <v>0.9028594990101364</v>
+        <v>0.9001446608830912</v>
       </c>
       <c r="AB6">
-        <v>0.9028594990101364</v>
+        <v>0.9001446608830912</v>
       </c>
       <c r="AC6">
-        <v>0.98244921144635</v>
+        <v>0.9786399709704405</v>
       </c>
       <c r="AD6">
-        <v>0.985812598077846</v>
+        <v>0.9833528357839857</v>
       </c>
       <c r="AE6">
-        <v>0.9934303236449711</v>
+        <v>0.9921836418255841</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06295237744712191</v>
+        <v>0.06344134805539126</v>
       </c>
       <c r="E7">
-        <v>0.1183677100444845</v>
+        <v>0.1188338704711644</v>
       </c>
       <c r="F7">
-        <v>0.2822971740277463</v>
+        <v>0.2901088561560271</v>
       </c>
       <c r="G7">
-        <v>0.4262492428778211</v>
+        <v>0.4400499406414146</v>
       </c>
       <c r="H7">
-        <v>0.4282223598449307</v>
+        <v>0.4400499406414146</v>
       </c>
       <c r="I7">
-        <v>0.4282223598449307</v>
+        <v>0.4400499406414146</v>
       </c>
       <c r="J7">
-        <v>0.4434865181785407</v>
+        <v>0.4525649417850161</v>
       </c>
       <c r="K7">
-        <v>0.4454500476542517</v>
+        <v>0.4525649417850161</v>
       </c>
       <c r="L7">
-        <v>0.4532579602430247</v>
+        <v>0.4571174028187157</v>
       </c>
       <c r="M7">
-        <v>0.4568028778901649</v>
+        <v>0.4571174028187157</v>
       </c>
       <c r="N7">
-        <v>0.4568028778901649</v>
+        <v>0.4571174028187157</v>
       </c>
       <c r="O7">
-        <v>0.5894559857397395</v>
+        <v>0.5949923036983662</v>
       </c>
       <c r="P7">
-        <v>0.5894559857397395</v>
+        <v>0.5949923036983662</v>
       </c>
       <c r="Q7">
-        <v>0.5894559857397395</v>
+        <v>0.5949923036983662</v>
       </c>
       <c r="R7">
-        <v>0.6593017639681067</v>
+        <v>0.6657951285736842</v>
       </c>
       <c r="S7">
-        <v>0.6593017639681067</v>
+        <v>0.6657951285736842</v>
       </c>
       <c r="T7">
-        <v>0.84393551247958</v>
+        <v>0.8591802621324764</v>
       </c>
       <c r="U7">
-        <v>0.8606301883603978</v>
+        <v>0.8732229158960909</v>
       </c>
       <c r="V7">
-        <v>0.8969213811972447</v>
+        <v>0.9081927302733157</v>
       </c>
       <c r="W7">
-        <v>0.8969213811972447</v>
+        <v>0.9081927302733157</v>
       </c>
       <c r="X7">
-        <v>0.9213939772721436</v>
+        <v>0.9305414409503399</v>
       </c>
       <c r="Y7">
-        <v>0.9292683123407725</v>
+        <v>0.9351648346863874</v>
       </c>
       <c r="Z7">
-        <v>0.9292683123407725</v>
+        <v>0.9351648346863874</v>
       </c>
       <c r="AA7">
-        <v>0.9292683123407725</v>
+        <v>0.9351648346863874</v>
       </c>
       <c r="AB7">
-        <v>0.9292683123407725</v>
+        <v>0.9351648346863874</v>
       </c>
       <c r="AC7">
-        <v>0.9903050031141823</v>
+        <v>0.996560417017386</v>
       </c>
       <c r="AD7">
-        <v>0.9925369436079917</v>
+        <v>0.996560417017386</v>
       </c>
       <c r="AE7">
-        <v>0.9932342036352456</v>
+        <v>0.996560417017386</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,94 +2572,94 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1155352812826572</v>
+        <v>0.1114269029128025</v>
       </c>
       <c r="E8">
-        <v>0.1350289703619617</v>
+        <v>0.1330529129214162</v>
       </c>
       <c r="F8">
-        <v>0.4260326602534352</v>
+        <v>0.4085464395547559</v>
       </c>
       <c r="G8">
-        <v>0.4260326602534352</v>
+        <v>0.4085464395547559</v>
       </c>
       <c r="H8">
-        <v>0.4260326602534352</v>
+        <v>0.4085464395547559</v>
       </c>
       <c r="I8">
-        <v>0.4726239728584494</v>
+        <v>0.455509293032582</v>
       </c>
       <c r="J8">
-        <v>0.4726239728584494</v>
+        <v>0.455509293032582</v>
       </c>
       <c r="K8">
-        <v>0.5107603083756733</v>
+        <v>0.4945665664950291</v>
       </c>
       <c r="L8">
-        <v>0.5107603083756733</v>
+        <v>0.4945665664950291</v>
       </c>
       <c r="M8">
-        <v>0.5107603083756733</v>
+        <v>0.4945665664950291</v>
       </c>
       <c r="N8">
-        <v>0.6230621454407128</v>
+        <v>0.6029701315889088</v>
       </c>
       <c r="O8">
-        <v>0.6483708132771754</v>
+        <v>0.6300332680823275</v>
       </c>
       <c r="P8">
-        <v>0.6571051341648095</v>
+        <v>0.641599044305446</v>
       </c>
       <c r="Q8">
-        <v>0.68129967848026</v>
+        <v>0.6676204520572107</v>
       </c>
       <c r="R8">
-        <v>0.7280359009440319</v>
+        <v>0.7147187992769515</v>
       </c>
       <c r="S8">
-        <v>0.8081170938546253</v>
+        <v>0.7929953897066566</v>
       </c>
       <c r="T8">
-        <v>0.8943707704839198</v>
+        <v>0.877043381220616</v>
       </c>
       <c r="U8">
-        <v>0.9082733702591388</v>
+        <v>0.8934416060551683</v>
       </c>
       <c r="V8">
-        <v>0.9173804341090619</v>
+        <v>0.9053559047264197</v>
       </c>
       <c r="W8">
-        <v>0.9199404887332863</v>
+        <v>0.9111486131487833</v>
       </c>
       <c r="X8">
-        <v>0.9307923909581788</v>
+        <v>0.924694372111884</v>
       </c>
       <c r="Y8">
-        <v>0.9307923909581788</v>
+        <v>0.924694372111884</v>
       </c>
       <c r="Z8">
-        <v>0.9307923909581788</v>
+        <v>0.924694372111884</v>
       </c>
       <c r="AA8">
-        <v>0.9307923909581788</v>
+        <v>0.924694372111884</v>
       </c>
       <c r="AB8">
-        <v>0.9551698868416781</v>
+        <v>0.9508868433976041</v>
       </c>
       <c r="AC8">
-        <v>0.987146517831854</v>
+        <v>0.9841846645866684</v>
       </c>
       <c r="AD8">
-        <v>0.987146517831854</v>
+        <v>0.9841846645866684</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.9996019425656422</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9996019425656422</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9996019425656422</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -2682,97 +2682,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01139518642935993</v>
+        <v>0.01679973142022475</v>
       </c>
       <c r="E9">
-        <v>0.1065099871632421</v>
+        <v>0.1055315617931928</v>
       </c>
       <c r="F9">
-        <v>0.1882960607923136</v>
+        <v>0.1828113169866224</v>
       </c>
       <c r="G9">
-        <v>0.4264479206167598</v>
+        <v>0.3944409410711899</v>
       </c>
       <c r="H9">
-        <v>0.4264479206167598</v>
+        <v>0.3944409410711899</v>
       </c>
       <c r="I9">
-        <v>0.4264479206167598</v>
+        <v>0.3944409410711899</v>
       </c>
       <c r="J9">
-        <v>0.4604786110238931</v>
+        <v>0.4306891532984561</v>
       </c>
       <c r="K9">
-        <v>0.4604786110238931</v>
+        <v>0.4306891532984561</v>
       </c>
       <c r="L9">
-        <v>0.496176969018623</v>
+        <v>0.468370229627257</v>
       </c>
       <c r="M9">
-        <v>0.496176969018623</v>
+        <v>0.468370229627257</v>
       </c>
       <c r="N9">
-        <v>0.496176969018623</v>
+        <v>0.468370229627257</v>
       </c>
       <c r="O9">
-        <v>0.6238421446839515</v>
+        <v>0.5850694223676747</v>
       </c>
       <c r="P9">
-        <v>0.6390203768040235</v>
+        <v>0.6051195559693671</v>
       </c>
       <c r="Q9">
-        <v>0.6390203768040235</v>
+        <v>0.6091896032766814</v>
       </c>
       <c r="R9">
-        <v>0.6804838288692631</v>
+        <v>0.6518240626399927</v>
       </c>
       <c r="S9">
-        <v>0.7107939117180909</v>
+        <v>0.6848755196830452</v>
       </c>
       <c r="T9">
-        <v>0.803637582613009</v>
+        <v>0.7716559897007605</v>
       </c>
       <c r="U9">
-        <v>0.8595887401929184</v>
+        <v>0.8267383213498756</v>
       </c>
       <c r="V9">
-        <v>0.8861698027199223</v>
+        <v>0.8565857949415644</v>
       </c>
       <c r="W9">
-        <v>0.9000004897372026</v>
+        <v>0.8754781144696668</v>
       </c>
       <c r="X9">
-        <v>0.9065203770452436</v>
+        <v>0.8880889768687882</v>
       </c>
       <c r="Y9">
-        <v>0.9258170555335064</v>
+        <v>0.9116776897406942</v>
       </c>
       <c r="Z9">
-        <v>0.9258170555335064</v>
+        <v>0.9116776897406942</v>
       </c>
       <c r="AA9">
-        <v>0.9258170555335064</v>
+        <v>0.9140321504339939</v>
       </c>
       <c r="AB9">
-        <v>0.9258170555335064</v>
+        <v>0.9140321504339939</v>
       </c>
       <c r="AC9">
-        <v>0.9835000529947642</v>
+        <v>0.9706024831775995</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999998</v>
+        <v>0.9917882374662325</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>0.9925590131170443</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>0.9959191066365045</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>0.9959191066365045</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>0.9959191066365045</v>
       </c>
       <c r="AI9">
         <v>0.9999999999999998</v>
@@ -2792,82 +2792,82 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04398220801573765</v>
+        <v>0.04306179413255217</v>
       </c>
       <c r="E10">
-        <v>0.09874451539824922</v>
+        <v>0.09755242167313902</v>
       </c>
       <c r="F10">
-        <v>0.2329536979384882</v>
+        <v>0.2362709463855421</v>
       </c>
       <c r="G10">
-        <v>0.4025145772673573</v>
+        <v>0.4124685925366484</v>
       </c>
       <c r="H10">
-        <v>0.4025145772673573</v>
+        <v>0.4124685925366484</v>
       </c>
       <c r="I10">
-        <v>0.4025145772673573</v>
+        <v>0.4124685925366484</v>
       </c>
       <c r="J10">
-        <v>0.4315494391297652</v>
+        <v>0.4396835263327215</v>
       </c>
       <c r="K10">
-        <v>0.4349141665079667</v>
+        <v>0.4396835263327215</v>
       </c>
       <c r="L10">
-        <v>0.4593112686276518</v>
+        <v>0.4619816053130182</v>
       </c>
       <c r="M10">
-        <v>0.4609825909598818</v>
+        <v>0.4619816053130182</v>
       </c>
       <c r="N10">
-        <v>0.4609825909598818</v>
+        <v>0.4619816053130182</v>
       </c>
       <c r="O10">
-        <v>0.6243962650970024</v>
+        <v>0.6316621144998736</v>
       </c>
       <c r="P10">
-        <v>0.6243962650970024</v>
+        <v>0.6316621144998736</v>
       </c>
       <c r="Q10">
-        <v>0.6243962650970024</v>
+        <v>0.6316621144998736</v>
       </c>
       <c r="R10">
-        <v>0.6987648680776114</v>
+        <v>0.7069389220667766</v>
       </c>
       <c r="S10">
-        <v>0.7000208351163631</v>
+        <v>0.7069389220667766</v>
       </c>
       <c r="T10">
-        <v>0.8425466617134993</v>
+        <v>0.8544745769563984</v>
       </c>
       <c r="U10">
-        <v>0.8649103315102038</v>
+        <v>0.8746168539839333</v>
       </c>
       <c r="V10">
-        <v>0.9019410594523128</v>
+        <v>0.9103088359285159</v>
       </c>
       <c r="W10">
-        <v>0.9019410594523128</v>
+        <v>0.9103088359285159</v>
       </c>
       <c r="X10">
-        <v>0.9191949457303783</v>
+        <v>0.9250338285137903</v>
       </c>
       <c r="Y10">
-        <v>0.928771150028659</v>
+        <v>0.931619105005419</v>
       </c>
       <c r="Z10">
-        <v>0.928771150028659</v>
+        <v>0.931619105005419</v>
       </c>
       <c r="AA10">
-        <v>0.928771150028659</v>
+        <v>0.931619105005419</v>
       </c>
       <c r="AB10">
-        <v>0.928771150028659</v>
+        <v>0.931619105005419</v>
       </c>
       <c r="AC10">
-        <v>0.9918413332527297</v>
+        <v>0.9949175668467235</v>
       </c>
       <c r="AD10">
         <v>0.9999999999999999</v>
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1377407053596326</v>
+        <v>0.1448880455028922</v>
       </c>
       <c r="E11">
-        <v>0.1608975300417136</v>
+        <v>0.1659522578685646</v>
       </c>
       <c r="F11">
-        <v>0.5119452105898527</v>
+        <v>0.5413481823729858</v>
       </c>
       <c r="G11">
-        <v>0.5119452105898527</v>
+        <v>0.5413481823729858</v>
       </c>
       <c r="H11">
-        <v>0.5156096715231869</v>
+        <v>0.5413481823729858</v>
       </c>
       <c r="I11">
-        <v>0.5365029792025288</v>
+        <v>0.5599663495358502</v>
       </c>
       <c r="J11">
-        <v>0.5365029792025288</v>
+        <v>0.5599663495358502</v>
       </c>
       <c r="K11">
-        <v>0.5613387306524098</v>
+        <v>0.5828448759805744</v>
       </c>
       <c r="L11">
-        <v>0.5613387306524098</v>
+        <v>0.5828448759805744</v>
       </c>
       <c r="M11">
-        <v>0.5613387306524098</v>
+        <v>0.5828448759805744</v>
       </c>
       <c r="N11">
-        <v>0.628777168950705</v>
+        <v>0.6517615358549055</v>
       </c>
       <c r="O11">
-        <v>0.6457422181322376</v>
+        <v>0.6661346728976836</v>
       </c>
       <c r="P11">
-        <v>0.6467189614558606</v>
+        <v>0.6661346728976836</v>
       </c>
       <c r="Q11">
-        <v>0.6562302445648651</v>
+        <v>0.6724529781355775</v>
       </c>
       <c r="R11">
-        <v>0.6831744299375071</v>
+        <v>0.6976099609276433</v>
       </c>
       <c r="S11">
-        <v>0.7512437102174124</v>
+        <v>0.7672083333762471</v>
       </c>
       <c r="T11">
-        <v>0.8533846229261892</v>
+        <v>0.8736258474321903</v>
       </c>
       <c r="U11">
-        <v>0.8597555304621363</v>
+        <v>0.8765505397234191</v>
       </c>
       <c r="V11">
-        <v>0.8837283906636241</v>
+        <v>0.898496592059876</v>
       </c>
       <c r="W11">
-        <v>0.8869438359979122</v>
+        <v>0.898496592059876</v>
       </c>
       <c r="X11">
-        <v>0.9207483184834018</v>
+        <v>0.9310670808350693</v>
       </c>
       <c r="Y11">
-        <v>0.9207483184834018</v>
+        <v>0.9310670808350693</v>
       </c>
       <c r="Z11">
-        <v>0.923227128884757</v>
+        <v>0.9310670808350693</v>
       </c>
       <c r="AA11">
-        <v>0.923227128884757</v>
+        <v>0.9310670808350693</v>
       </c>
       <c r="AB11">
-        <v>0.9710015837987606</v>
+        <v>0.9787340694380851</v>
       </c>
       <c r="AC11">
-        <v>0.9883206312635774</v>
+        <v>0.9934897509024786</v>
       </c>
       <c r="AD11">
-        <v>0.9889657352859447</v>
+        <v>0.9934897509024786</v>
       </c>
       <c r="AE11">
-        <v>0.9986546390657935</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9986546390657935</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9986546390657935</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3066,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5054250194994798</v>
+        <v>0.5457922905305573</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -3107,16 +3107,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5140082820322101</v>
+        <v>0.515351146992305</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5125722080091693</v>
+        <v>0.5167561579477593</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -3189,16 +3189,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5239350407482666</v>
+        <v>0.5145727852265231</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -3230,16 +3230,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5187239528347021</v>
+      </c>
+      <c r="G6">
         <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5019157492126034</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5894559857397395</v>
+        <v>0.5949923036983662</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -3312,16 +3312,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5107603083756733</v>
+        <v>0.6029701315889088</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>38</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6238421446839515</v>
+        <v>0.5850694223676747</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6243962650970024</v>
+        <v>0.6316621144998736</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5119452105898527</v>
+        <v>0.5413481823729858</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7051730124753284</v>
+        <v>0.74121874933566</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -3571,16 +3571,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7140905706600998</v>
+        <v>0.7184106818289351</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7025090316184343</v>
+        <v>0.706255212436484</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7002561079474329</v>
+        <v>0.7102176186038669</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7905410047808408</v>
+        <v>0.7826833254290577</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.84393551247958</v>
+        <v>0.8591802621324764</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7280359009440319</v>
+        <v>0.7147187992769515</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -3817,16 +3817,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7107939117180909</v>
+        <v>0.7716559897007605</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>38</v>
@@ -3858,16 +3858,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7000208351163631</v>
+        <v>0.7069389220667766</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>38</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7512437102174124</v>
+        <v>0.7672083333762471</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3994,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9125856709178379</v>
+        <v>0.8118987428390274</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.869800473602953</v>
+        <v>0.9052747759023926</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8691097300274685</v>
+        <v>0.8741600557429271</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8666463195334803</v>
+        <v>0.8779276690787604</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8249402985350263</v>
+        <v>0.8174370599110317</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.84393551247958</v>
+        <v>0.8591802621324764</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4240,16 +4240,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.877043381220616</v>
+      </c>
+      <c r="G8">
         <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8081170938546253</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
       </c>
       <c r="H8">
         <v>38</v>
@@ -4281,16 +4281,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.803637582613009</v>
+        <v>0.8267383213498756</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <v>38</v>
@@ -4328,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8425466617134993</v>
+        <v>0.8544745769563984</v>
       </c>
       <c r="G10">
         <v>17</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8533846229261892</v>
+        <v>0.8736258474321903</v>
       </c>
       <c r="G11">
         <v>18</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9125856709178379</v>
+        <v>0.9487362133023862</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -4499,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9013333446910679</v>
+        <v>0.9052747759023926</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -4540,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9041795296791326</v>
+        <v>0.9021880536413459</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9065317923822461</v>
+        <v>0.9157507454947971</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -4622,16 +4622,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9000066847563097</v>
+        <v>0.9001446608830912</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9213939772721436</v>
+        <v>0.9081927302733157</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>38</v>
@@ -4704,16 +4704,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.9053559047264197</v>
+      </c>
+      <c r="G8">
         <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9082733702591388</v>
-      </c>
-      <c r="G8">
-        <v>19</v>
       </c>
       <c r="H8">
         <v>38</v>
@@ -4745,16 +4745,16 @@
         <v>2</v>
       </c>
       <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.9116776897406942</v>
+      </c>
+      <c r="G9">
         <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9000004897372026</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
       </c>
       <c r="H9">
         <v>38</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9019410594523128</v>
+        <v>0.9103088359285159</v>
       </c>
       <c r="G10">
         <v>19</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9207483184834018</v>
+        <v>0.9310670808350693</v>
       </c>
       <c r="G11">
         <v>22</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/38_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/38_11R22.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="63">
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -562,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -677,10 +680,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -689,20 +695,20 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.2594822623451014</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>0.2863100281854559</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.01484970212347569</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -710,50 +716,50 @@
         <v>0</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0.03842798669172542</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0.02898450025395615</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.006796162231385282</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.1063681075045601</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0.04349785657225463</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.02718213693111285</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.1368374704633588</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>0.02089372177002465</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>0.001164550995657963</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
         <v>0</v>
       </c>
@@ -764,17 +770,17 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>0.02786791350161992</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>0.001337600430311131</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
         <v>0</v>
       </c>
@@ -787,10 +793,13 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -799,71 +808,71 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.1209677177294262</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.001530384074710471</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.281477925078949</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.09475174876995865</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.01662337133926062</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.03494118412263348</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>0.003064560679502734</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0.1650537900344939</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>0.008131822983222901</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>0.1787322710902346</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
       <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>0.02446025681675303</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>0.02395583166588537</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
       <c r="Z3">
         <v>0</v>
       </c>
@@ -874,11 +883,11 @@
         <v>0</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>0.04630913561496917</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
         <v>0</v>
       </c>
@@ -897,10 +906,13 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -909,71 +921,71 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.1274306401316332</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.06175116199598285</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.2069451690788155</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0.04654422676470755</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>0.07408495997662015</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0.01628189787034458</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.06534797125401511</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.09105767185261825</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>0.01681151351174667</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.06369340532691475</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.1042114379795283</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.00783367758787439</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.02019432031054449</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.00443032575064721</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.02004314242112464</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
         <v>0</v>
       </c>
@@ -981,20 +993,20 @@
         <v>0</v>
       </c>
       <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>0.03783947797740139</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.02990977738465086</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
       <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>0.005589222824830173</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
       <c r="AG4">
         <v>0</v>
       </c>
@@ -1007,10 +1019,13 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1022,71 +1037,71 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1468271685082267</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.3677456167182964</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.03662167493431045</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.01672875968744563</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.01131175017945562</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>0.01189745659383988</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>0.1190851919822923</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>0.02350537490924197</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>0.1442046755656515</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>0.03782307641603665</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>0.01818553047686462</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
       <c r="AA5">
         <v>0</v>
       </c>
@@ -1097,17 +1112,17 @@
         <v>0</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>0.05685814291883589</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>0.009205581109502344</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
       <c r="AH5">
         <v>0</v>
       </c>
@@ -1117,10 +1132,13 @@
       <c r="AJ5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1129,95 +1147,95 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.06962674812938867</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.03248779216976278</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.143935795682728</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.1962511609819251</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.002127405292562088</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.05013887039198361</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.02415618018635183</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.03142123563133246</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0.1045460772338665</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.009376001779994338</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>0.01088471849442238</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>0.10773133945474</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.0347537344819739</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.02677703740286917</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.01084754937459363</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.01380710138559342</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.02705725099049983</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>0.004218661818503515</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>0.07849531008734933</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.004712864813545131</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.008830806041598306</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>0.007816358174416135</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
       <c r="AH6">
         <v>0</v>
       </c>
@@ -1227,10 +1245,13 @@
       <c r="AJ6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1239,74 +1260,74 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.06344134805539126</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.05539252241577317</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.1712749856848626</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.1499410844853876</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0.01251500114360144</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0.004552461033699663</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0.1378749008796504</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>0.07080282487531797</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>0.1933851335587922</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.01404265376361442</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.03496981437722483</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>0.02234871067702421</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.004623393736047616</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
       <c r="AA7">
         <v>0</v>
       </c>
@@ -1314,20 +1335,20 @@
         <v>0</v>
       </c>
       <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>0.06139558233099856</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0.003439582982614084</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
         <v>0</v>
       </c>
@@ -1337,10 +1358,13 @@
       <c r="AJ7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1349,71 +1373,71 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1114269029128025</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.02162601000861368</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2754935266333397</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04696285347782611</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0469628534778261</v>
       </c>
       <c r="K8">
-        <v>0.03905727346244701</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.03905727346244699</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>0.1084035650938797</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.02706313649341871</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.01156577622311846</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.02602140775176459</v>
       </c>
-      <c r="R8">
-        <v>0.04709834721974081</v>
-      </c>
       <c r="S8">
-        <v>0.0782765904297051</v>
+        <v>0.04709834721974079</v>
       </c>
       <c r="T8">
+        <v>0.07827659042970508</v>
+      </c>
+      <c r="U8">
         <v>0.08404799151395934</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.01639822483455234</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0.01191429867125142</v>
       </c>
-      <c r="W8">
-        <v>0.005792708422363596</v>
-      </c>
       <c r="X8">
+        <v>0.005792708422363595</v>
+      </c>
+      <c r="Y8">
         <v>0.01354575896310068</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
         <v>0</v>
       </c>
@@ -1421,36 +1445,39 @@
         <v>0</v>
       </c>
       <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>0.02619247128572007</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.0332978211890643</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
         <v>0.0154172779789738</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.0003980574343581521</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.0003980574343581515</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1459,108 +1486,111 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.01679973142022475</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.08873183037296804</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0772797551934296</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.2116296240845675</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.03624821222726621</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0.03768107632880083</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>0.1166991927404177</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.02005013360169238</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.004070047307314271</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.04263445936331129</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.03305145704305248</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.08678047001771538</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.05508233164911498</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.02984747359168887</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.01889231952810245</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.01261086239912132</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>0.02358871287190605</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
       <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>0.002354460693299739</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
         <v>0.05657033274360559</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.02118575428863301</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.0007707756508118532</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>0.003360093519460246</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
       <c r="AH9">
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>0.00408089336349522</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1569,74 +1599,74 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.04306179413255217</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.05449062754058685</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.1387185247124031</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1761976461511063</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.02721493379607308</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>0.02229807898029673</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0.1696805091868555</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0.0752768075669029</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>0.1475356548896219</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.0201422770275349</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.0356919819445826</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>0.01472499258527447</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>0.00658527649162868</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AA10">
         <v>0</v>
       </c>
@@ -1644,14 +1674,14 @@
         <v>0</v>
       </c>
       <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>0.06329846184130453</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.005082433153276338</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
         <v>0</v>
       </c>
@@ -1667,10 +1697,13 @@
       <c r="AJ10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1679,70 +1712,70 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.1448880455028922</v>
       </c>
-      <c r="E11">
-        <v>0.02106421236567234</v>
-      </c>
       <c r="F11">
+        <v>0.02106421236567233</v>
+      </c>
+      <c r="G11">
         <v>0.3753959245044212</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01861816716286446</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01861816716286445</v>
       </c>
       <c r="K11">
-        <v>0.0228785264447242</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.02287852644472419</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>0.06891665987433107</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.01437313704277812</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
-        <v>0.00631830523789394</v>
+        <v>0</v>
       </c>
       <c r="R11">
+        <v>0.006318305237893937</v>
+      </c>
+      <c r="S11">
         <v>0.02515698279206582</v>
       </c>
-      <c r="S11">
-        <v>0.06959837244860376</v>
-      </c>
       <c r="T11">
+        <v>0.06959837244860374</v>
+      </c>
+      <c r="U11">
         <v>0.1064175140559432</v>
       </c>
-      <c r="U11">
-        <v>0.002924692291228811</v>
-      </c>
       <c r="V11">
+        <v>0.00292469229122881</v>
+      </c>
+      <c r="W11">
         <v>0.02194605233645687</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
       <c r="X11">
-        <v>0.03257048877519335</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.03257048877519334</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1751,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04766698860301574</v>
+        <v>0</v>
       </c>
       <c r="AC11">
+        <v>0.04766698860301573</v>
+      </c>
+      <c r="AD11">
         <v>0.01475568146439355</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
       <c r="AE11">
-        <v>0.00651024909752155</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.006510249097521546</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1775,6 +1808,9 @@
         <v>0</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
         <v>0</v>
       </c>
     </row>
@@ -1785,15 +1821,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1900,10 +1936,13 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1912,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2594822623451014</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0.2594822623451014</v>
       </c>
       <c r="F2">
+        <v>0.2594822623451014</v>
+      </c>
+      <c r="G2">
         <v>0.5457922905305573</v>
-      </c>
-      <c r="G2">
-        <v>0.560641992654033</v>
       </c>
       <c r="H2">
         <v>0.560641992654033</v>
@@ -1933,19 +1972,19 @@
         <v>0.560641992654033</v>
       </c>
       <c r="K2">
-        <v>0.5990699793457585</v>
+        <v>0.560641992654033</v>
       </c>
       <c r="L2">
         <v>0.5990699793457585</v>
       </c>
       <c r="M2">
+        <v>0.5990699793457585</v>
+      </c>
+      <c r="N2">
         <v>0.6280544795997146</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.6348506418310998</v>
-      </c>
-      <c r="O2">
-        <v>0.74121874933566</v>
       </c>
       <c r="P2">
         <v>0.74121874933566</v>
@@ -1954,25 +1993,25 @@
         <v>0.74121874933566</v>
       </c>
       <c r="R2">
+        <v>0.74121874933566</v>
+      </c>
+      <c r="S2">
         <v>0.7847166059079146</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.8118987428390274</v>
-      </c>
-      <c r="T2">
-        <v>0.9487362133023862</v>
       </c>
       <c r="U2">
         <v>0.9487362133023862</v>
       </c>
       <c r="V2">
-        <v>0.9696299350724109</v>
+        <v>0.9487362133023862</v>
       </c>
       <c r="W2">
         <v>0.9696299350724109</v>
       </c>
       <c r="X2">
-        <v>0.9707944860680688</v>
+        <v>0.9696299350724109</v>
       </c>
       <c r="Y2">
         <v>0.9707944860680688</v>
@@ -1987,13 +2026,13 @@
         <v>0.9707944860680688</v>
       </c>
       <c r="AC2">
-        <v>0.9986623995696887</v>
+        <v>0.9707944860680688</v>
       </c>
       <c r="AD2">
         <v>0.9986623995696887</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.9986623995696887</v>
       </c>
       <c r="AF2">
         <v>0.9999999999999999</v>
@@ -2010,10 +2049,13 @@
       <c r="AJ2">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2022,25 +2064,25 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.1209677177294262</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1224981018041367</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.4039760268830857</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.4987277756530444</v>
-      </c>
-      <c r="H3">
-        <v>0.515351146992305</v>
       </c>
       <c r="I3">
         <v>0.515351146992305</v>
       </c>
       <c r="J3">
-        <v>0.5502923311149385</v>
+        <v>0.515351146992305</v>
       </c>
       <c r="K3">
         <v>0.5502923311149385</v>
@@ -2049,13 +2091,13 @@
         <v>0.5502923311149385</v>
       </c>
       <c r="M3">
-        <v>0.5533568917944413</v>
+        <v>0.5502923311149385</v>
       </c>
       <c r="N3">
         <v>0.5533568917944413</v>
       </c>
       <c r="O3">
-        <v>0.7184106818289351</v>
+        <v>0.5533568917944413</v>
       </c>
       <c r="P3">
         <v>0.7184106818289351</v>
@@ -2064,25 +2106,25 @@
         <v>0.7184106818289351</v>
       </c>
       <c r="R3">
-        <v>0.726542504812158</v>
+        <v>0.7184106818289351</v>
       </c>
       <c r="S3">
         <v>0.726542504812158</v>
       </c>
       <c r="T3">
-        <v>0.9052747759023926</v>
+        <v>0.726542504812158</v>
       </c>
       <c r="U3">
         <v>0.9052747759023926</v>
       </c>
       <c r="V3">
-        <v>0.9297350327191456</v>
+        <v>0.9052747759023926</v>
       </c>
       <c r="W3">
         <v>0.9297350327191456</v>
       </c>
       <c r="X3">
-        <v>0.9536908643850309</v>
+        <v>0.9297350327191456</v>
       </c>
       <c r="Y3">
         <v>0.9536908643850309</v>
@@ -2097,7 +2139,7 @@
         <v>0.9536908643850309</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9536908643850309</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -2120,10 +2162,13 @@
       <c r="AJ3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2132,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.1274306401316332</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.1891818021276161</v>
-      </c>
-      <c r="F4">
-        <v>0.3961269712064316</v>
       </c>
       <c r="G4">
         <v>0.3961269712064316</v>
       </c>
       <c r="H4">
-        <v>0.4426711979711391</v>
+        <v>0.3961269712064316</v>
       </c>
       <c r="I4">
         <v>0.4426711979711391</v>
@@ -2153,19 +2198,19 @@
         <v>0.4426711979711391</v>
       </c>
       <c r="K4">
-        <v>0.5167561579477593</v>
+        <v>0.4426711979711391</v>
       </c>
       <c r="L4">
         <v>0.5167561579477593</v>
       </c>
       <c r="M4">
+        <v>0.5167561579477593</v>
+      </c>
+      <c r="N4">
         <v>0.5330380558181039</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.5983860270721191</v>
-      </c>
-      <c r="O4">
-        <v>0.6894436989247373</v>
       </c>
       <c r="P4">
         <v>0.6894436989247373</v>
@@ -2174,25 +2219,25 @@
         <v>0.6894436989247373</v>
       </c>
       <c r="R4">
+        <v>0.6894436989247373</v>
+      </c>
+      <c r="S4">
         <v>0.706255212436484</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.7699486177633987</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.8741600557429271</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.8819937333308014</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.9021880536413459</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.9066183793919931</v>
-      </c>
-      <c r="X4">
-        <v>0.9266615218131177</v>
       </c>
       <c r="Y4">
         <v>0.9266615218131177</v>
@@ -2204,16 +2249,16 @@
         <v>0.9266615218131177</v>
       </c>
       <c r="AB4">
+        <v>0.9266615218131177</v>
+      </c>
+      <c r="AC4">
         <v>0.9645009997905191</v>
-      </c>
-      <c r="AC4">
-        <v>0.9944107771751699</v>
       </c>
       <c r="AD4">
         <v>0.9944107771751699</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9944107771751699</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -2230,10 +2275,13 @@
       <c r="AJ4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2245,25 +2293,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1468271685082267</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0.1468271685082267</v>
       </c>
       <c r="G5">
+        <v>0.1468271685082267</v>
+      </c>
+      <c r="H5">
         <v>0.5145727852265231</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.5511944601608335</v>
-      </c>
-      <c r="I5">
-        <v>0.5679232198482791</v>
       </c>
       <c r="J5">
         <v>0.5679232198482791</v>
       </c>
       <c r="K5">
-        <v>0.5792349700277347</v>
+        <v>0.5679232198482791</v>
       </c>
       <c r="L5">
         <v>0.5792349700277347</v>
@@ -2272,13 +2320,13 @@
         <v>0.5792349700277347</v>
       </c>
       <c r="N5">
-        <v>0.5911324266215746</v>
+        <v>0.5792349700277347</v>
       </c>
       <c r="O5">
         <v>0.5911324266215746</v>
       </c>
       <c r="P5">
-        <v>0.7102176186038669</v>
+        <v>0.5911324266215746</v>
       </c>
       <c r="Q5">
         <v>0.7102176186038669</v>
@@ -2287,25 +2335,25 @@
         <v>0.7102176186038669</v>
       </c>
       <c r="S5">
-        <v>0.7337229935131089</v>
+        <v>0.7102176186038669</v>
       </c>
       <c r="T5">
         <v>0.7337229935131089</v>
       </c>
       <c r="U5">
-        <v>0.8779276690787604</v>
+        <v>0.7337229935131089</v>
       </c>
       <c r="V5">
         <v>0.8779276690787604</v>
       </c>
       <c r="W5">
-        <v>0.9157507454947971</v>
+        <v>0.8779276690787604</v>
       </c>
       <c r="X5">
         <v>0.9157507454947971</v>
       </c>
       <c r="Y5">
-        <v>0.9339362759716617</v>
+        <v>0.9157507454947971</v>
       </c>
       <c r="Z5">
         <v>0.9339362759716617</v>
@@ -2320,13 +2368,13 @@
         <v>0.9339362759716617</v>
       </c>
       <c r="AD5">
-        <v>0.9907944188904976</v>
+        <v>0.9339362759716617</v>
       </c>
       <c r="AE5">
         <v>0.9907944188904976</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.9907944188904976</v>
       </c>
       <c r="AG5">
         <v>0.9999999999999999</v>
@@ -2340,10 +2388,13 @@
       <c r="AJ5">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2352,31 +2403,31 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.06962674812938867</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.1021145402991515</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.2460503359818794</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.4423014969638046</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.4444289022563667</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.4945677726483503</v>
-      </c>
-      <c r="J6">
-        <v>0.5187239528347021</v>
       </c>
       <c r="K6">
         <v>0.5187239528347021</v>
       </c>
       <c r="L6">
-        <v>0.5501451884660346</v>
+        <v>0.5187239528347021</v>
       </c>
       <c r="M6">
         <v>0.5501451884660346</v>
@@ -2385,58 +2436,58 @@
         <v>0.5501451884660346</v>
       </c>
       <c r="O6">
+        <v>0.5501451884660346</v>
+      </c>
+      <c r="P6">
         <v>0.654691265699901</v>
-      </c>
-      <c r="P6">
-        <v>0.6640672674798953</v>
       </c>
       <c r="Q6">
         <v>0.6640672674798953</v>
       </c>
       <c r="R6">
-        <v>0.6749519859743177</v>
+        <v>0.6640672674798953</v>
       </c>
       <c r="S6">
         <v>0.6749519859743177</v>
       </c>
       <c r="T6">
+        <v>0.6749519859743177</v>
+      </c>
+      <c r="U6">
         <v>0.7826833254290577</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.8174370599110317</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.8442140973139008</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.8550616466884945</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.8688687480740879</v>
-      </c>
-      <c r="Y6">
-        <v>0.8959259990645877</v>
       </c>
       <c r="Z6">
         <v>0.8959259990645877</v>
       </c>
       <c r="AA6">
-        <v>0.9001446608830912</v>
+        <v>0.8959259990645877</v>
       </c>
       <c r="AB6">
         <v>0.9001446608830912</v>
       </c>
       <c r="AC6">
+        <v>0.9001446608830912</v>
+      </c>
+      <c r="AD6">
         <v>0.9786399709704405</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.9833528357839857</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.9921836418255841</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -2450,10 +2501,13 @@
       <c r="AJ6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2462,16 +2516,16 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.06344134805539126</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1188338704711644</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.2901088561560271</v>
-      </c>
-      <c r="G7">
-        <v>0.4400499406414146</v>
       </c>
       <c r="H7">
         <v>0.4400499406414146</v>
@@ -2480,13 +2534,13 @@
         <v>0.4400499406414146</v>
       </c>
       <c r="J7">
-        <v>0.4525649417850161</v>
+        <v>0.4400499406414146</v>
       </c>
       <c r="K7">
         <v>0.4525649417850161</v>
       </c>
       <c r="L7">
-        <v>0.4571174028187157</v>
+        <v>0.4525649417850161</v>
       </c>
       <c r="M7">
         <v>0.4571174028187157</v>
@@ -2495,7 +2549,7 @@
         <v>0.4571174028187157</v>
       </c>
       <c r="O7">
-        <v>0.5949923036983662</v>
+        <v>0.4571174028187157</v>
       </c>
       <c r="P7">
         <v>0.5949923036983662</v>
@@ -2504,28 +2558,28 @@
         <v>0.5949923036983662</v>
       </c>
       <c r="R7">
-        <v>0.6657951285736842</v>
+        <v>0.5949923036983662</v>
       </c>
       <c r="S7">
         <v>0.6657951285736842</v>
       </c>
       <c r="T7">
+        <v>0.6657951285736842</v>
+      </c>
+      <c r="U7">
         <v>0.8591802621324764</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.8732229158960909</v>
-      </c>
-      <c r="V7">
-        <v>0.9081927302733157</v>
       </c>
       <c r="W7">
         <v>0.9081927302733157</v>
       </c>
       <c r="X7">
+        <v>0.9081927302733157</v>
+      </c>
+      <c r="Y7">
         <v>0.9305414409503399</v>
-      </c>
-      <c r="Y7">
-        <v>0.9351648346863874</v>
       </c>
       <c r="Z7">
         <v>0.9351648346863874</v>
@@ -2537,7 +2591,7 @@
         <v>0.9351648346863874</v>
       </c>
       <c r="AC7">
-        <v>0.996560417017386</v>
+        <v>0.9351648346863874</v>
       </c>
       <c r="AD7">
         <v>0.996560417017386</v>
@@ -2546,7 +2600,7 @@
         <v>0.996560417017386</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.996560417017386</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -2560,10 +2614,13 @@
       <c r="AJ7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2572,97 +2629,97 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1114269029128025</v>
       </c>
-      <c r="E8">
-        <v>0.1330529129214162</v>
-      </c>
       <c r="F8">
-        <v>0.4085464395547559</v>
+        <v>0.1330529129214161</v>
       </c>
       <c r="G8">
-        <v>0.4085464395547559</v>
+        <v>0.4085464395547558</v>
       </c>
       <c r="H8">
-        <v>0.4085464395547559</v>
+        <v>0.4085464395547558</v>
       </c>
       <c r="I8">
-        <v>0.455509293032582</v>
+        <v>0.4085464395547558</v>
       </c>
       <c r="J8">
-        <v>0.455509293032582</v>
+        <v>0.4555092930325819</v>
       </c>
       <c r="K8">
-        <v>0.4945665664950291</v>
+        <v>0.4555092930325819</v>
       </c>
       <c r="L8">
-        <v>0.4945665664950291</v>
+        <v>0.4945665664950289</v>
       </c>
       <c r="M8">
-        <v>0.4945665664950291</v>
+        <v>0.4945665664950289</v>
       </c>
       <c r="N8">
-        <v>0.6029701315889088</v>
+        <v>0.4945665664950289</v>
       </c>
       <c r="O8">
-        <v>0.6300332680823275</v>
+        <v>0.6029701315889086</v>
       </c>
       <c r="P8">
-        <v>0.641599044305446</v>
+        <v>0.6300332680823273</v>
       </c>
       <c r="Q8">
-        <v>0.6676204520572107</v>
+        <v>0.6415990443054458</v>
       </c>
       <c r="R8">
-        <v>0.7147187992769515</v>
+        <v>0.6676204520572104</v>
       </c>
       <c r="S8">
-        <v>0.7929953897066566</v>
+        <v>0.7147187992769513</v>
       </c>
       <c r="T8">
-        <v>0.877043381220616</v>
+        <v>0.7929953897066564</v>
       </c>
       <c r="U8">
-        <v>0.8934416060551683</v>
+        <v>0.8770433812206158</v>
       </c>
       <c r="V8">
-        <v>0.9053559047264197</v>
+        <v>0.8934416060551681</v>
       </c>
       <c r="W8">
-        <v>0.9111486131487833</v>
+        <v>0.9053559047264195</v>
       </c>
       <c r="X8">
-        <v>0.924694372111884</v>
+        <v>0.911148613148783</v>
       </c>
       <c r="Y8">
-        <v>0.924694372111884</v>
+        <v>0.9246943721118838</v>
       </c>
       <c r="Z8">
-        <v>0.924694372111884</v>
+        <v>0.9246943721118838</v>
       </c>
       <c r="AA8">
-        <v>0.924694372111884</v>
+        <v>0.9246943721118838</v>
       </c>
       <c r="AB8">
-        <v>0.9508868433976041</v>
+        <v>0.9246943721118838</v>
       </c>
       <c r="AC8">
-        <v>0.9841846645866684</v>
+        <v>0.9508868433976039</v>
       </c>
       <c r="AD8">
-        <v>0.9841846645866684</v>
+        <v>0.9841846645866682</v>
       </c>
       <c r="AE8">
-        <v>0.9996019425656422</v>
+        <v>0.9841846645866682</v>
       </c>
       <c r="AF8">
-        <v>0.9996019425656422</v>
+        <v>0.9996019425656421</v>
       </c>
       <c r="AG8">
-        <v>0.9996019425656422</v>
+        <v>0.9996019425656421</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9996019425656421</v>
       </c>
       <c r="AI8">
         <v>1</v>
@@ -2670,10 +2727,13 @@
       <c r="AJ8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2682,16 +2742,16 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.01679973142022475</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1055315617931928</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.1828113169866224</v>
-      </c>
-      <c r="G9">
-        <v>0.3944409410711899</v>
       </c>
       <c r="H9">
         <v>0.3944409410711899</v>
@@ -2700,13 +2760,13 @@
         <v>0.3944409410711899</v>
       </c>
       <c r="J9">
-        <v>0.4306891532984561</v>
+        <v>0.3944409410711899</v>
       </c>
       <c r="K9">
         <v>0.4306891532984561</v>
       </c>
       <c r="L9">
-        <v>0.468370229627257</v>
+        <v>0.4306891532984561</v>
       </c>
       <c r="M9">
         <v>0.468370229627257</v>
@@ -2715,58 +2775,58 @@
         <v>0.468370229627257</v>
       </c>
       <c r="O9">
+        <v>0.468370229627257</v>
+      </c>
+      <c r="P9">
         <v>0.5850694223676747</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.6051195559693671</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.6091896032766814</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.6518240626399927</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.6848755196830452</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.7716559897007605</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.8267383213498756</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.8565857949415644</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.8754781144696668</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>0.8880889768687882</v>
-      </c>
-      <c r="Y9">
-        <v>0.9116776897406942</v>
       </c>
       <c r="Z9">
         <v>0.9116776897406942</v>
       </c>
       <c r="AA9">
-        <v>0.9140321504339939</v>
+        <v>0.9116776897406942</v>
       </c>
       <c r="AB9">
         <v>0.9140321504339939</v>
       </c>
       <c r="AC9">
+        <v>0.9140321504339939</v>
+      </c>
+      <c r="AD9">
         <v>0.9706024831775995</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.9917882374662325</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>0.9925590131170443</v>
-      </c>
-      <c r="AF9">
-        <v>0.9959191066365045</v>
       </c>
       <c r="AG9">
         <v>0.9959191066365045</v>
@@ -2775,15 +2835,18 @@
         <v>0.9959191066365045</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>0.9959191066365045</v>
       </c>
       <c r="AJ9">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2792,16 +2855,16 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.04306179413255217</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.09755242167313902</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.2362709463855421</v>
-      </c>
-      <c r="G10">
-        <v>0.4124685925366484</v>
       </c>
       <c r="H10">
         <v>0.4124685925366484</v>
@@ -2810,13 +2873,13 @@
         <v>0.4124685925366484</v>
       </c>
       <c r="J10">
-        <v>0.4396835263327215</v>
+        <v>0.4124685925366484</v>
       </c>
       <c r="K10">
         <v>0.4396835263327215</v>
       </c>
       <c r="L10">
-        <v>0.4619816053130182</v>
+        <v>0.4396835263327215</v>
       </c>
       <c r="M10">
         <v>0.4619816053130182</v>
@@ -2825,7 +2888,7 @@
         <v>0.4619816053130182</v>
       </c>
       <c r="O10">
-        <v>0.6316621144998736</v>
+        <v>0.4619816053130182</v>
       </c>
       <c r="P10">
         <v>0.6316621144998736</v>
@@ -2834,28 +2897,28 @@
         <v>0.6316621144998736</v>
       </c>
       <c r="R10">
-        <v>0.7069389220667766</v>
+        <v>0.6316621144998736</v>
       </c>
       <c r="S10">
         <v>0.7069389220667766</v>
       </c>
       <c r="T10">
+        <v>0.7069389220667766</v>
+      </c>
+      <c r="U10">
         <v>0.8544745769563984</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.8746168539839333</v>
-      </c>
-      <c r="V10">
-        <v>0.9103088359285159</v>
       </c>
       <c r="W10">
         <v>0.9103088359285159</v>
       </c>
       <c r="X10">
+        <v>0.9103088359285159</v>
+      </c>
+      <c r="Y10">
         <v>0.9250338285137903</v>
-      </c>
-      <c r="Y10">
-        <v>0.931619105005419</v>
       </c>
       <c r="Z10">
         <v>0.931619105005419</v>
@@ -2867,10 +2930,10 @@
         <v>0.931619105005419</v>
       </c>
       <c r="AC10">
+        <v>0.931619105005419</v>
+      </c>
+      <c r="AD10">
         <v>0.9949175668467235</v>
-      </c>
-      <c r="AD10">
-        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
         <v>0.9999999999999999</v>
@@ -2890,10 +2953,13 @@
       <c r="AJ10">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2902,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.1448880455028922</v>
       </c>
-      <c r="E11">
-        <v>0.1659522578685646</v>
-      </c>
       <c r="F11">
-        <v>0.5413481823729858</v>
+        <v>0.1659522578685645</v>
       </c>
       <c r="G11">
         <v>0.5413481823729858</v>
@@ -2917,13 +2983,13 @@
         <v>0.5413481823729858</v>
       </c>
       <c r="I11">
-        <v>0.5599663495358502</v>
+        <v>0.5413481823729858</v>
       </c>
       <c r="J11">
         <v>0.5599663495358502</v>
       </c>
       <c r="K11">
-        <v>0.5828448759805744</v>
+        <v>0.5599663495358502</v>
       </c>
       <c r="L11">
         <v>0.5828448759805744</v>
@@ -2932,37 +2998,37 @@
         <v>0.5828448759805744</v>
       </c>
       <c r="N11">
+        <v>0.5828448759805744</v>
+      </c>
+      <c r="O11">
         <v>0.6517615358549055</v>
-      </c>
-      <c r="O11">
-        <v>0.6661346728976836</v>
       </c>
       <c r="P11">
         <v>0.6661346728976836</v>
       </c>
       <c r="Q11">
+        <v>0.6661346728976836</v>
+      </c>
+      <c r="R11">
         <v>0.6724529781355775</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.6976099609276433</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.7672083333762471</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.8736258474321903</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.8765505397234191</v>
-      </c>
-      <c r="V11">
-        <v>0.898496592059876</v>
       </c>
       <c r="W11">
         <v>0.898496592059876</v>
       </c>
       <c r="X11">
-        <v>0.9310670808350693</v>
+        <v>0.898496592059876</v>
       </c>
       <c r="Y11">
         <v>0.9310670808350693</v>
@@ -2974,16 +3040,16 @@
         <v>0.9310670808350693</v>
       </c>
       <c r="AB11">
+        <v>0.9310670808350693</v>
+      </c>
+      <c r="AC11">
         <v>0.9787340694380851</v>
-      </c>
-      <c r="AC11">
-        <v>0.9934897509024786</v>
       </c>
       <c r="AD11">
         <v>0.9934897509024786</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9934897509024786</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2998,6 +3064,9 @@
         <v>1</v>
       </c>
       <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
         <v>1</v>
       </c>
     </row>
@@ -3016,57 +3085,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3084,30 +3153,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3125,30 +3194,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3166,30 +3235,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3207,30 +3276,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3248,30 +3317,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3289,36 +3358,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6029701315889088</v>
+        <v>0.6029701315889086</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3330,30 +3399,30 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3371,30 +3440,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3412,30 +3481,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3453,16 +3522,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3480,57 +3549,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3548,30 +3617,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3589,30 +3658,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3630,30 +3699,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3671,30 +3740,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3712,30 +3781,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3753,36 +3822,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7147187992769515</v>
+        <v>0.7147187992769513</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -3794,30 +3863,30 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3835,30 +3904,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3876,30 +3945,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3917,16 +3986,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3944,57 +4013,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4012,30 +4081,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4053,30 +4122,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4094,30 +4163,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4135,30 +4204,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4176,30 +4245,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4217,36 +4286,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.877043381220616</v>
+        <v>0.8770433812206158</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4258,30 +4327,30 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4299,30 +4368,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4340,30 +4409,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4381,16 +4450,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4408,57 +4477,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4476,30 +4545,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4517,30 +4586,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4558,30 +4627,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4599,30 +4668,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4640,30 +4709,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4681,36 +4750,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9053559047264197</v>
+        <v>0.9053559047264195</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -4722,30 +4791,30 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4763,30 +4832,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4804,30 +4873,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4845,16 +4914,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/38_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/38_11R22.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="63">
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -565,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -680,1031 +677,1001 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.2594822623451014</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.2863100281854559</v>
+      </c>
+      <c r="G2">
+        <v>0.01484970212347569</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.03842798669172542</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.02898450025395615</v>
+      </c>
+      <c r="N2">
+        <v>0.006796162231385282</v>
+      </c>
+      <c r="O2">
+        <v>0.1063681075045601</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.04349785657225463</v>
+      </c>
+      <c r="S2">
+        <v>0.02718213693111285</v>
+      </c>
+      <c r="T2">
+        <v>0.1368374704633588</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.02089372177002465</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0.001164550995657963</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0.02786791350161992</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.001337600430311131</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.2594822623451014</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.2863100281854559</v>
-      </c>
-      <c r="H2">
-        <v>0.01484970212347569</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.03842798669172542</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.02898450025395615</v>
-      </c>
-      <c r="O2">
-        <v>0.006796162231385282</v>
-      </c>
-      <c r="P2">
-        <v>0.1063681075045601</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0.04349785657225463</v>
-      </c>
-      <c r="T2">
-        <v>0.02718213693111285</v>
-      </c>
-      <c r="U2">
-        <v>0.1368374704633588</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0.02089372177002465</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.001164550995657963</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0.02786791350161992</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0.001337600430311131</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1209677177294262</v>
+      </c>
+      <c r="E3">
+        <v>0.001530384074710471</v>
+      </c>
+      <c r="F3">
+        <v>0.281477925078949</v>
+      </c>
+      <c r="G3">
+        <v>0.09475174876995865</v>
+      </c>
+      <c r="H3">
+        <v>0.01662337133926062</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.03494118412263348</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.003064560679502734</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.1650537900344939</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.008131822983222901</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.1787322710902346</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.02446025681675303</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0.02395583166588537</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.04630913561496917</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.1209677177294262</v>
-      </c>
-      <c r="F3">
-        <v>0.001530384074710471</v>
-      </c>
-      <c r="G3">
-        <v>0.281477925078949</v>
-      </c>
-      <c r="H3">
-        <v>0.09475174876995865</v>
-      </c>
-      <c r="I3">
-        <v>0.01662337133926062</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0.03494118412263348</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.003064560679502734</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0.1650537900344939</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.008131822983222901</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.1787322710902346</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0.02446025681675303</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.02395583166588537</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0.04630913561496917</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1274306401316332</v>
+      </c>
+      <c r="E4">
+        <v>0.06175116199598285</v>
+      </c>
+      <c r="F4">
+        <v>0.2069451690788155</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.04654422676470755</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.07408495997662015</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.01628189787034458</v>
+      </c>
+      <c r="N4">
+        <v>0.06534797125401511</v>
+      </c>
+      <c r="O4">
+        <v>0.09105767185261825</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.01681151351174667</v>
+      </c>
+      <c r="S4">
+        <v>0.06369340532691475</v>
+      </c>
+      <c r="T4">
+        <v>0.1042114379795283</v>
+      </c>
+      <c r="U4">
+        <v>0.00783367758787439</v>
+      </c>
+      <c r="V4">
+        <v>0.02019432031054449</v>
+      </c>
+      <c r="W4">
+        <v>0.00443032575064721</v>
+      </c>
+      <c r="X4">
+        <v>0.02004314242112464</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.03783947797740139</v>
+      </c>
+      <c r="AC4">
+        <v>0.02990977738465086</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0.005589222824830173</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.1274306401316332</v>
-      </c>
-      <c r="F4">
-        <v>0.06175116199598285</v>
-      </c>
-      <c r="G4">
-        <v>0.2069451690788155</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.04654422676470755</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0.07408495997662015</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.01628189787034458</v>
-      </c>
-      <c r="O4">
-        <v>0.06534797125401511</v>
-      </c>
-      <c r="P4">
-        <v>0.09105767185261825</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0.01681151351174667</v>
-      </c>
-      <c r="T4">
-        <v>0.06369340532691475</v>
-      </c>
-      <c r="U4">
-        <v>0.1042114379795283</v>
-      </c>
-      <c r="V4">
-        <v>0.00783367758787439</v>
-      </c>
-      <c r="W4">
-        <v>0.02019432031054449</v>
-      </c>
-      <c r="X4">
-        <v>0.00443032575064721</v>
-      </c>
-      <c r="Y4">
-        <v>0.02004314242112464</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0.03783947797740139</v>
-      </c>
-      <c r="AD4">
-        <v>0.02990977738465086</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.005589222824830173</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.1468271685082267</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.3677456167182964</v>
+      </c>
+      <c r="H5">
+        <v>0.03662167493431045</v>
+      </c>
+      <c r="I5">
+        <v>0.01672875968744563</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.01131175017945562</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.01189745659383988</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.1190851919822923</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.02350537490924197</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.1442046755656515</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.03782307641603665</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0.01818553047686462</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.05685814291883589</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0.009205581109502344</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.1468271685082267</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0.3677456167182964</v>
-      </c>
-      <c r="I5">
-        <v>0.03662167493431045</v>
-      </c>
-      <c r="J5">
-        <v>0.01672875968744563</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0.01131175017945562</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.01189745659383988</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.1190851919822923</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.02350537490924197</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.1442046755656515</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.03782307641603665</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0.01818553047686462</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0.05685814291883589</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0.009205581109502344</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.06962674812938867</v>
+      </c>
+      <c r="E6">
+        <v>0.03248779216976278</v>
+      </c>
+      <c r="F6">
+        <v>0.143935795682728</v>
+      </c>
+      <c r="G6">
+        <v>0.1962511609819251</v>
+      </c>
+      <c r="H6">
+        <v>0.002127405292562088</v>
+      </c>
+      <c r="I6">
+        <v>0.05013887039198361</v>
+      </c>
+      <c r="J6">
+        <v>0.02415618018635183</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.03142123563133246</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.1045460772338665</v>
+      </c>
+      <c r="P6">
+        <v>0.009376001779994338</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.01088471849442238</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.10773133945474</v>
+      </c>
+      <c r="U6">
+        <v>0.0347537344819739</v>
+      </c>
+      <c r="V6">
+        <v>0.02677703740286917</v>
+      </c>
+      <c r="W6">
+        <v>0.01084754937459363</v>
+      </c>
+      <c r="X6">
+        <v>0.01380710138559342</v>
+      </c>
+      <c r="Y6">
+        <v>0.02705725099049983</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0.004218661818503515</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0.07849531008734933</v>
+      </c>
+      <c r="AD6">
+        <v>0.004712864813545131</v>
+      </c>
+      <c r="AE6">
+        <v>0.008830806041598306</v>
+      </c>
+      <c r="AF6">
+        <v>0.007816358174416135</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.06962674812938867</v>
-      </c>
-      <c r="F6">
-        <v>0.03248779216976278</v>
-      </c>
-      <c r="G6">
-        <v>0.143935795682728</v>
-      </c>
-      <c r="H6">
-        <v>0.1962511609819251</v>
-      </c>
-      <c r="I6">
-        <v>0.002127405292562088</v>
-      </c>
-      <c r="J6">
-        <v>0.05013887039198361</v>
-      </c>
-      <c r="K6">
-        <v>0.02415618018635183</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0.03142123563133246</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0.1045460772338665</v>
-      </c>
-      <c r="Q6">
-        <v>0.009376001779994338</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.01088471849442238</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.10773133945474</v>
-      </c>
-      <c r="V6">
-        <v>0.0347537344819739</v>
-      </c>
-      <c r="W6">
-        <v>0.02677703740286917</v>
-      </c>
-      <c r="X6">
-        <v>0.01084754937459363</v>
-      </c>
-      <c r="Y6">
-        <v>0.01380710138559342</v>
-      </c>
-      <c r="Z6">
-        <v>0.02705725099049983</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.004218661818503515</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0.07849531008734933</v>
-      </c>
-      <c r="AE6">
-        <v>0.004712864813545131</v>
-      </c>
-      <c r="AF6">
-        <v>0.008830806041598306</v>
-      </c>
-      <c r="AG6">
-        <v>0.007816358174416135</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.06344134805539126</v>
+      </c>
+      <c r="E7">
+        <v>0.05539252241577317</v>
+      </c>
+      <c r="F7">
+        <v>0.1712749856848626</v>
+      </c>
+      <c r="G7">
+        <v>0.1499410844853876</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.01251500114360144</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.004552461033699663</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.1378749008796504</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.07080282487531797</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.1933851335587922</v>
+      </c>
+      <c r="U7">
+        <v>0.01404265376361442</v>
+      </c>
+      <c r="V7">
+        <v>0.03496981437722483</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.02234871067702421</v>
+      </c>
+      <c r="Y7">
+        <v>0.004623393736047616</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0.06139558233099856</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.003439582982614084</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.06344134805539126</v>
-      </c>
-      <c r="F7">
-        <v>0.05539252241577317</v>
-      </c>
-      <c r="G7">
-        <v>0.1712749856848626</v>
-      </c>
-      <c r="H7">
-        <v>0.1499410844853876</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0.01251500114360144</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0.004552461033699663</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0.1378749008796504</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0.07080282487531797</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.1933851335587922</v>
-      </c>
-      <c r="V7">
-        <v>0.01404265376361442</v>
-      </c>
-      <c r="W7">
-        <v>0.03496981437722483</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0.02234871067702421</v>
-      </c>
-      <c r="Z7">
-        <v>0.004623393736047616</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0.06139558233099856</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0.003439582982614084</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.1114269029128025</v>
+      </c>
+      <c r="E8">
+        <v>0.02162601000861368</v>
+      </c>
+      <c r="F8">
+        <v>0.2754935266333397</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.04696285347782611</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.03905727346244701</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.1084035650938797</v>
+      </c>
+      <c r="O8">
+        <v>0.02706313649341871</v>
+      </c>
+      <c r="P8">
+        <v>0.01156577622311846</v>
+      </c>
+      <c r="Q8">
+        <v>0.02602140775176459</v>
+      </c>
+      <c r="R8">
+        <v>0.04709834721974081</v>
+      </c>
+      <c r="S8">
+        <v>0.0782765904297051</v>
+      </c>
+      <c r="T8">
+        <v>0.08404799151395934</v>
+      </c>
+      <c r="U8">
+        <v>0.01639822483455234</v>
+      </c>
+      <c r="V8">
+        <v>0.01191429867125142</v>
+      </c>
+      <c r="W8">
+        <v>0.005792708422363596</v>
+      </c>
+      <c r="X8">
+        <v>0.01354575896310068</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.02619247128572007</v>
+      </c>
+      <c r="AC8">
+        <v>0.0332978211890643</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.0154172779789738</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.0003980574343581521</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.1114269029128025</v>
-      </c>
-      <c r="F8">
-        <v>0.02162601000861368</v>
-      </c>
-      <c r="G8">
-        <v>0.2754935266333397</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.0469628534778261</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.03905727346244699</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0.1084035650938797</v>
-      </c>
-      <c r="P8">
-        <v>0.02706313649341871</v>
-      </c>
-      <c r="Q8">
-        <v>0.01156577622311846</v>
-      </c>
-      <c r="R8">
-        <v>0.02602140775176459</v>
-      </c>
-      <c r="S8">
-        <v>0.04709834721974079</v>
-      </c>
-      <c r="T8">
-        <v>0.07827659042970508</v>
-      </c>
-      <c r="U8">
-        <v>0.08404799151395934</v>
-      </c>
-      <c r="V8">
-        <v>0.01639822483455234</v>
-      </c>
-      <c r="W8">
-        <v>0.01191429867125142</v>
-      </c>
-      <c r="X8">
-        <v>0.005792708422363595</v>
-      </c>
-      <c r="Y8">
-        <v>0.01354575896310068</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0.02619247128572007</v>
-      </c>
-      <c r="AD8">
-        <v>0.0332978211890643</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0.0154172779789738</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0.0003980574343581515</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.01679973142022475</v>
+      </c>
+      <c r="E9">
+        <v>0.08873183037296804</v>
+      </c>
+      <c r="F9">
+        <v>0.0772797551934296</v>
+      </c>
+      <c r="G9">
+        <v>0.2116296240845675</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.03624821222726621</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.03768107632880083</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.1166991927404177</v>
+      </c>
+      <c r="P9">
+        <v>0.02005013360169238</v>
+      </c>
+      <c r="Q9">
+        <v>0.004070047307314271</v>
+      </c>
+      <c r="R9">
+        <v>0.04263445936331129</v>
+      </c>
+      <c r="S9">
+        <v>0.03305145704305248</v>
+      </c>
+      <c r="T9">
+        <v>0.08678047001771538</v>
+      </c>
+      <c r="U9">
+        <v>0.05508233164911498</v>
+      </c>
+      <c r="V9">
+        <v>0.02984747359168887</v>
+      </c>
+      <c r="W9">
+        <v>0.01889231952810245</v>
+      </c>
+      <c r="X9">
+        <v>0.01261086239912132</v>
+      </c>
+      <c r="Y9">
+        <v>0.02358871287190605</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0.002354460693299739</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0.05657033274360559</v>
+      </c>
+      <c r="AD9">
+        <v>0.02118575428863301</v>
+      </c>
+      <c r="AE9">
+        <v>0.0007707756508118532</v>
+      </c>
+      <c r="AF9">
+        <v>0.003360093519460246</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0.00408089336349522</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.01679973142022475</v>
-      </c>
-      <c r="F9">
-        <v>0.08873183037296804</v>
-      </c>
-      <c r="G9">
-        <v>0.0772797551934296</v>
-      </c>
-      <c r="H9">
-        <v>0.2116296240845675</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.03624821222726621</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0.03768107632880083</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0.1166991927404177</v>
-      </c>
-      <c r="Q9">
-        <v>0.02005013360169238</v>
-      </c>
-      <c r="R9">
-        <v>0.004070047307314271</v>
-      </c>
-      <c r="S9">
-        <v>0.04263445936331129</v>
-      </c>
-      <c r="T9">
-        <v>0.03305145704305248</v>
-      </c>
-      <c r="U9">
-        <v>0.08678047001771538</v>
-      </c>
-      <c r="V9">
-        <v>0.05508233164911498</v>
-      </c>
-      <c r="W9">
-        <v>0.02984747359168887</v>
-      </c>
-      <c r="X9">
-        <v>0.01889231952810245</v>
-      </c>
-      <c r="Y9">
-        <v>0.01261086239912132</v>
-      </c>
-      <c r="Z9">
-        <v>0.02358871287190605</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0.002354460693299739</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0.05657033274360559</v>
-      </c>
-      <c r="AE9">
-        <v>0.02118575428863301</v>
-      </c>
-      <c r="AF9">
-        <v>0.0007707756508118532</v>
-      </c>
-      <c r="AG9">
-        <v>0.003360093519460246</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0.00408089336349522</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.04306179413255217</v>
+      </c>
+      <c r="E10">
+        <v>0.05449062754058685</v>
+      </c>
+      <c r="F10">
+        <v>0.1387185247124031</v>
+      </c>
+      <c r="G10">
+        <v>0.1761976461511063</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.02721493379607308</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.02229807898029673</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.1696805091868555</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.0752768075669029</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.1475356548896219</v>
+      </c>
+      <c r="U10">
+        <v>0.0201422770275349</v>
+      </c>
+      <c r="V10">
+        <v>0.0356919819445826</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.01472499258527447</v>
+      </c>
+      <c r="Y10">
+        <v>0.00658527649162868</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0.06329846184130453</v>
+      </c>
+      <c r="AD10">
+        <v>0.005082433153276338</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.04306179413255217</v>
-      </c>
-      <c r="F10">
-        <v>0.05449062754058685</v>
-      </c>
-      <c r="G10">
-        <v>0.1387185247124031</v>
-      </c>
-      <c r="H10">
-        <v>0.1761976461511063</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.02721493379607308</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0.02229807898029673</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0.1696805091868555</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.0752768075669029</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0.1475356548896219</v>
-      </c>
-      <c r="V10">
-        <v>0.0201422770275349</v>
-      </c>
-      <c r="W10">
-        <v>0.0356919819445826</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0.01472499258527447</v>
-      </c>
-      <c r="Z10">
-        <v>0.00658527649162868</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0.06329846184130453</v>
-      </c>
-      <c r="AE10">
-        <v>0.005082433153276338</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -1712,70 +1679,70 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1448880455028922</v>
       </c>
       <c r="E11">
-        <v>0.1448880455028922</v>
+        <v>0.02106421236567234</v>
       </c>
       <c r="F11">
-        <v>0.02106421236567233</v>
+        <v>0.3753959245044212</v>
       </c>
       <c r="G11">
-        <v>0.3753959245044212</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01861816716286446</v>
       </c>
       <c r="J11">
-        <v>0.01861816716286445</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0228785264447242</v>
       </c>
       <c r="L11">
-        <v>0.02287852644472419</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.06891665987433107</v>
       </c>
       <c r="O11">
-        <v>0.06891665987433107</v>
+        <v>0.01437313704277812</v>
       </c>
       <c r="P11">
-        <v>0.01437313704277812</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.00631830523789394</v>
       </c>
       <c r="R11">
-        <v>0.006318305237893937</v>
+        <v>0.02515698279206582</v>
       </c>
       <c r="S11">
-        <v>0.02515698279206582</v>
+        <v>0.06959837244860376</v>
       </c>
       <c r="T11">
-        <v>0.06959837244860374</v>
+        <v>0.1064175140559432</v>
       </c>
       <c r="U11">
-        <v>0.1064175140559432</v>
+        <v>0.002924692291228811</v>
       </c>
       <c r="V11">
-        <v>0.00292469229122881</v>
+        <v>0.02194605233645687</v>
       </c>
       <c r="W11">
-        <v>0.02194605233645687</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.03257048877519335</v>
       </c>
       <c r="Y11">
-        <v>0.03257048877519334</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1784,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.04766698860301574</v>
       </c>
       <c r="AC11">
-        <v>0.04766698860301573</v>
+        <v>0.01475568146439355</v>
       </c>
       <c r="AD11">
-        <v>0.01475568146439355</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.00651024909752155</v>
       </c>
       <c r="AF11">
-        <v>0.006510249097521546</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1808,9 +1775,6 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
         <v>0</v>
       </c>
     </row>
@@ -1821,15 +1785,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1936,13 +1900,10 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1951,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2594822623451014</v>
       </c>
       <c r="E2">
         <v>0.2594822623451014</v>
       </c>
       <c r="F2">
-        <v>0.2594822623451014</v>
+        <v>0.5457922905305573</v>
       </c>
       <c r="G2">
-        <v>0.5457922905305573</v>
+        <v>0.560641992654033</v>
       </c>
       <c r="H2">
         <v>0.560641992654033</v>
@@ -1972,19 +1933,19 @@
         <v>0.560641992654033</v>
       </c>
       <c r="K2">
-        <v>0.560641992654033</v>
+        <v>0.5990699793457585</v>
       </c>
       <c r="L2">
         <v>0.5990699793457585</v>
       </c>
       <c r="M2">
-        <v>0.5990699793457585</v>
+        <v>0.6280544795997146</v>
       </c>
       <c r="N2">
-        <v>0.6280544795997146</v>
+        <v>0.6348506418310998</v>
       </c>
       <c r="O2">
-        <v>0.6348506418310998</v>
+        <v>0.74121874933566</v>
       </c>
       <c r="P2">
         <v>0.74121874933566</v>
@@ -1993,25 +1954,25 @@
         <v>0.74121874933566</v>
       </c>
       <c r="R2">
-        <v>0.74121874933566</v>
+        <v>0.7847166059079146</v>
       </c>
       <c r="S2">
-        <v>0.7847166059079146</v>
+        <v>0.8118987428390274</v>
       </c>
       <c r="T2">
-        <v>0.8118987428390274</v>
+        <v>0.9487362133023862</v>
       </c>
       <c r="U2">
         <v>0.9487362133023862</v>
       </c>
       <c r="V2">
-        <v>0.9487362133023862</v>
+        <v>0.9696299350724109</v>
       </c>
       <c r="W2">
         <v>0.9696299350724109</v>
       </c>
       <c r="X2">
-        <v>0.9696299350724109</v>
+        <v>0.9707944860680688</v>
       </c>
       <c r="Y2">
         <v>0.9707944860680688</v>
@@ -2026,13 +1987,13 @@
         <v>0.9707944860680688</v>
       </c>
       <c r="AC2">
-        <v>0.9707944860680688</v>
+        <v>0.9986623995696887</v>
       </c>
       <c r="AD2">
         <v>0.9986623995696887</v>
       </c>
       <c r="AE2">
-        <v>0.9986623995696887</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF2">
         <v>0.9999999999999999</v>
@@ -2049,13 +2010,10 @@
       <c r="AJ2">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2064,25 +2022,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1209677177294262</v>
       </c>
       <c r="E3">
-        <v>0.1209677177294262</v>
+        <v>0.1224981018041367</v>
       </c>
       <c r="F3">
-        <v>0.1224981018041367</v>
+        <v>0.4039760268830857</v>
       </c>
       <c r="G3">
-        <v>0.4039760268830857</v>
+        <v>0.4987277756530444</v>
       </c>
       <c r="H3">
-        <v>0.4987277756530444</v>
+        <v>0.515351146992305</v>
       </c>
       <c r="I3">
         <v>0.515351146992305</v>
       </c>
       <c r="J3">
-        <v>0.515351146992305</v>
+        <v>0.5502923311149385</v>
       </c>
       <c r="K3">
         <v>0.5502923311149385</v>
@@ -2091,13 +2049,13 @@
         <v>0.5502923311149385</v>
       </c>
       <c r="M3">
-        <v>0.5502923311149385</v>
+        <v>0.5533568917944413</v>
       </c>
       <c r="N3">
         <v>0.5533568917944413</v>
       </c>
       <c r="O3">
-        <v>0.5533568917944413</v>
+        <v>0.7184106818289351</v>
       </c>
       <c r="P3">
         <v>0.7184106818289351</v>
@@ -2106,25 +2064,25 @@
         <v>0.7184106818289351</v>
       </c>
       <c r="R3">
-        <v>0.7184106818289351</v>
+        <v>0.726542504812158</v>
       </c>
       <c r="S3">
         <v>0.726542504812158</v>
       </c>
       <c r="T3">
-        <v>0.726542504812158</v>
+        <v>0.9052747759023926</v>
       </c>
       <c r="U3">
         <v>0.9052747759023926</v>
       </c>
       <c r="V3">
-        <v>0.9052747759023926</v>
+        <v>0.9297350327191456</v>
       </c>
       <c r="W3">
         <v>0.9297350327191456</v>
       </c>
       <c r="X3">
-        <v>0.9297350327191456</v>
+        <v>0.9536908643850309</v>
       </c>
       <c r="Y3">
         <v>0.9536908643850309</v>
@@ -2139,7 +2097,7 @@
         <v>0.9536908643850309</v>
       </c>
       <c r="AC3">
-        <v>0.9536908643850309</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -2162,13 +2120,10 @@
       <c r="AJ3">
         <v>1</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2177,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1274306401316332</v>
       </c>
       <c r="E4">
-        <v>0.1274306401316332</v>
+        <v>0.1891818021276161</v>
       </c>
       <c r="F4">
-        <v>0.1891818021276161</v>
+        <v>0.3961269712064316</v>
       </c>
       <c r="G4">
         <v>0.3961269712064316</v>
       </c>
       <c r="H4">
-        <v>0.3961269712064316</v>
+        <v>0.4426711979711391</v>
       </c>
       <c r="I4">
         <v>0.4426711979711391</v>
@@ -2198,19 +2153,19 @@
         <v>0.4426711979711391</v>
       </c>
       <c r="K4">
-        <v>0.4426711979711391</v>
+        <v>0.5167561579477593</v>
       </c>
       <c r="L4">
         <v>0.5167561579477593</v>
       </c>
       <c r="M4">
-        <v>0.5167561579477593</v>
+        <v>0.5330380558181039</v>
       </c>
       <c r="N4">
-        <v>0.5330380558181039</v>
+        <v>0.5983860270721191</v>
       </c>
       <c r="O4">
-        <v>0.5983860270721191</v>
+        <v>0.6894436989247373</v>
       </c>
       <c r="P4">
         <v>0.6894436989247373</v>
@@ -2219,25 +2174,25 @@
         <v>0.6894436989247373</v>
       </c>
       <c r="R4">
-        <v>0.6894436989247373</v>
+        <v>0.706255212436484</v>
       </c>
       <c r="S4">
-        <v>0.706255212436484</v>
+        <v>0.7699486177633987</v>
       </c>
       <c r="T4">
-        <v>0.7699486177633987</v>
+        <v>0.8741600557429271</v>
       </c>
       <c r="U4">
-        <v>0.8741600557429271</v>
+        <v>0.8819937333308014</v>
       </c>
       <c r="V4">
-        <v>0.8819937333308014</v>
+        <v>0.9021880536413459</v>
       </c>
       <c r="W4">
-        <v>0.9021880536413459</v>
+        <v>0.9066183793919931</v>
       </c>
       <c r="X4">
-        <v>0.9066183793919931</v>
+        <v>0.9266615218131177</v>
       </c>
       <c r="Y4">
         <v>0.9266615218131177</v>
@@ -2249,16 +2204,16 @@
         <v>0.9266615218131177</v>
       </c>
       <c r="AB4">
-        <v>0.9266615218131177</v>
+        <v>0.9645009997905191</v>
       </c>
       <c r="AC4">
-        <v>0.9645009997905191</v>
+        <v>0.9944107771751699</v>
       </c>
       <c r="AD4">
         <v>0.9944107771751699</v>
       </c>
       <c r="AE4">
-        <v>0.9944107771751699</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -2275,13 +2230,10 @@
       <c r="AJ4">
         <v>1</v>
       </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2293,25 +2245,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.1468271685082267</v>
       </c>
       <c r="F5">
         <v>0.1468271685082267</v>
       </c>
       <c r="G5">
-        <v>0.1468271685082267</v>
+        <v>0.5145727852265231</v>
       </c>
       <c r="H5">
-        <v>0.5145727852265231</v>
+        <v>0.5511944601608335</v>
       </c>
       <c r="I5">
-        <v>0.5511944601608335</v>
+        <v>0.5679232198482791</v>
       </c>
       <c r="J5">
         <v>0.5679232198482791</v>
       </c>
       <c r="K5">
-        <v>0.5679232198482791</v>
+        <v>0.5792349700277347</v>
       </c>
       <c r="L5">
         <v>0.5792349700277347</v>
@@ -2320,13 +2272,13 @@
         <v>0.5792349700277347</v>
       </c>
       <c r="N5">
-        <v>0.5792349700277347</v>
+        <v>0.5911324266215746</v>
       </c>
       <c r="O5">
         <v>0.5911324266215746</v>
       </c>
       <c r="P5">
-        <v>0.5911324266215746</v>
+        <v>0.7102176186038669</v>
       </c>
       <c r="Q5">
         <v>0.7102176186038669</v>
@@ -2335,25 +2287,25 @@
         <v>0.7102176186038669</v>
       </c>
       <c r="S5">
-        <v>0.7102176186038669</v>
+        <v>0.7337229935131089</v>
       </c>
       <c r="T5">
         <v>0.7337229935131089</v>
       </c>
       <c r="U5">
-        <v>0.7337229935131089</v>
+        <v>0.8779276690787604</v>
       </c>
       <c r="V5">
         <v>0.8779276690787604</v>
       </c>
       <c r="W5">
-        <v>0.8779276690787604</v>
+        <v>0.9157507454947971</v>
       </c>
       <c r="X5">
         <v>0.9157507454947971</v>
       </c>
       <c r="Y5">
-        <v>0.9157507454947971</v>
+        <v>0.9339362759716617</v>
       </c>
       <c r="Z5">
         <v>0.9339362759716617</v>
@@ -2368,13 +2320,13 @@
         <v>0.9339362759716617</v>
       </c>
       <c r="AD5">
-        <v>0.9339362759716617</v>
+        <v>0.9907944188904976</v>
       </c>
       <c r="AE5">
         <v>0.9907944188904976</v>
       </c>
       <c r="AF5">
-        <v>0.9907944188904976</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
         <v>0.9999999999999999</v>
@@ -2388,13 +2340,10 @@
       <c r="AJ5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2403,31 +2352,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.06962674812938867</v>
       </c>
       <c r="E6">
-        <v>0.06962674812938867</v>
+        <v>0.1021145402991515</v>
       </c>
       <c r="F6">
-        <v>0.1021145402991515</v>
+        <v>0.2460503359818794</v>
       </c>
       <c r="G6">
-        <v>0.2460503359818794</v>
+        <v>0.4423014969638046</v>
       </c>
       <c r="H6">
-        <v>0.4423014969638046</v>
+        <v>0.4444289022563667</v>
       </c>
       <c r="I6">
-        <v>0.4444289022563667</v>
+        <v>0.4945677726483503</v>
       </c>
       <c r="J6">
-        <v>0.4945677726483503</v>
+        <v>0.5187239528347021</v>
       </c>
       <c r="K6">
         <v>0.5187239528347021</v>
       </c>
       <c r="L6">
-        <v>0.5187239528347021</v>
+        <v>0.5501451884660346</v>
       </c>
       <c r="M6">
         <v>0.5501451884660346</v>
@@ -2436,58 +2385,58 @@
         <v>0.5501451884660346</v>
       </c>
       <c r="O6">
-        <v>0.5501451884660346</v>
+        <v>0.654691265699901</v>
       </c>
       <c r="P6">
-        <v>0.654691265699901</v>
+        <v>0.6640672674798953</v>
       </c>
       <c r="Q6">
         <v>0.6640672674798953</v>
       </c>
       <c r="R6">
-        <v>0.6640672674798953</v>
+        <v>0.6749519859743177</v>
       </c>
       <c r="S6">
         <v>0.6749519859743177</v>
       </c>
       <c r="T6">
-        <v>0.6749519859743177</v>
+        <v>0.7826833254290577</v>
       </c>
       <c r="U6">
-        <v>0.7826833254290577</v>
+        <v>0.8174370599110317</v>
       </c>
       <c r="V6">
-        <v>0.8174370599110317</v>
+        <v>0.8442140973139008</v>
       </c>
       <c r="W6">
-        <v>0.8442140973139008</v>
+        <v>0.8550616466884945</v>
       </c>
       <c r="X6">
-        <v>0.8550616466884945</v>
+        <v>0.8688687480740879</v>
       </c>
       <c r="Y6">
-        <v>0.8688687480740879</v>
+        <v>0.8959259990645877</v>
       </c>
       <c r="Z6">
         <v>0.8959259990645877</v>
       </c>
       <c r="AA6">
-        <v>0.8959259990645877</v>
+        <v>0.9001446608830912</v>
       </c>
       <c r="AB6">
         <v>0.9001446608830912</v>
       </c>
       <c r="AC6">
-        <v>0.9001446608830912</v>
+        <v>0.9786399709704405</v>
       </c>
       <c r="AD6">
-        <v>0.9786399709704405</v>
+        <v>0.9833528357839857</v>
       </c>
       <c r="AE6">
-        <v>0.9833528357839857</v>
+        <v>0.9921836418255841</v>
       </c>
       <c r="AF6">
-        <v>0.9921836418255841</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>1</v>
@@ -2501,13 +2450,10 @@
       <c r="AJ6">
         <v>1</v>
       </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2516,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.06344134805539126</v>
       </c>
       <c r="E7">
-        <v>0.06344134805539126</v>
+        <v>0.1188338704711644</v>
       </c>
       <c r="F7">
-        <v>0.1188338704711644</v>
+        <v>0.2901088561560271</v>
       </c>
       <c r="G7">
-        <v>0.2901088561560271</v>
+        <v>0.4400499406414146</v>
       </c>
       <c r="H7">
         <v>0.4400499406414146</v>
@@ -2534,13 +2480,13 @@
         <v>0.4400499406414146</v>
       </c>
       <c r="J7">
-        <v>0.4400499406414146</v>
+        <v>0.4525649417850161</v>
       </c>
       <c r="K7">
         <v>0.4525649417850161</v>
       </c>
       <c r="L7">
-        <v>0.4525649417850161</v>
+        <v>0.4571174028187157</v>
       </c>
       <c r="M7">
         <v>0.4571174028187157</v>
@@ -2549,7 +2495,7 @@
         <v>0.4571174028187157</v>
       </c>
       <c r="O7">
-        <v>0.4571174028187157</v>
+        <v>0.5949923036983662</v>
       </c>
       <c r="P7">
         <v>0.5949923036983662</v>
@@ -2558,28 +2504,28 @@
         <v>0.5949923036983662</v>
       </c>
       <c r="R7">
-        <v>0.5949923036983662</v>
+        <v>0.6657951285736842</v>
       </c>
       <c r="S7">
         <v>0.6657951285736842</v>
       </c>
       <c r="T7">
-        <v>0.6657951285736842</v>
+        <v>0.8591802621324764</v>
       </c>
       <c r="U7">
-        <v>0.8591802621324764</v>
+        <v>0.8732229158960909</v>
       </c>
       <c r="V7">
-        <v>0.8732229158960909</v>
+        <v>0.9081927302733157</v>
       </c>
       <c r="W7">
         <v>0.9081927302733157</v>
       </c>
       <c r="X7">
-        <v>0.9081927302733157</v>
+        <v>0.9305414409503399</v>
       </c>
       <c r="Y7">
-        <v>0.9305414409503399</v>
+        <v>0.9351648346863874</v>
       </c>
       <c r="Z7">
         <v>0.9351648346863874</v>
@@ -2591,7 +2537,7 @@
         <v>0.9351648346863874</v>
       </c>
       <c r="AC7">
-        <v>0.9351648346863874</v>
+        <v>0.996560417017386</v>
       </c>
       <c r="AD7">
         <v>0.996560417017386</v>
@@ -2600,7 +2546,7 @@
         <v>0.996560417017386</v>
       </c>
       <c r="AF7">
-        <v>0.996560417017386</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -2614,127 +2560,121 @@
       <c r="AJ7">
         <v>1</v>
       </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.1114269029128025</v>
+      </c>
+      <c r="E8">
+        <v>0.1330529129214162</v>
+      </c>
+      <c r="F8">
+        <v>0.4085464395547559</v>
+      </c>
+      <c r="G8">
+        <v>0.4085464395547559</v>
+      </c>
+      <c r="H8">
+        <v>0.4085464395547559</v>
+      </c>
+      <c r="I8">
+        <v>0.455509293032582</v>
+      </c>
+      <c r="J8">
+        <v>0.455509293032582</v>
+      </c>
+      <c r="K8">
+        <v>0.4945665664950291</v>
+      </c>
+      <c r="L8">
+        <v>0.4945665664950291</v>
+      </c>
+      <c r="M8">
+        <v>0.4945665664950291</v>
+      </c>
+      <c r="N8">
+        <v>0.6029701315889088</v>
+      </c>
+      <c r="O8">
+        <v>0.6300332680823275</v>
+      </c>
+      <c r="P8">
+        <v>0.641599044305446</v>
+      </c>
+      <c r="Q8">
+        <v>0.6676204520572107</v>
+      </c>
+      <c r="R8">
+        <v>0.7147187992769515</v>
+      </c>
+      <c r="S8">
+        <v>0.7929953897066566</v>
+      </c>
+      <c r="T8">
+        <v>0.877043381220616</v>
+      </c>
+      <c r="U8">
+        <v>0.8934416060551683</v>
+      </c>
+      <c r="V8">
+        <v>0.9053559047264197</v>
+      </c>
+      <c r="W8">
+        <v>0.9111486131487833</v>
+      </c>
+      <c r="X8">
+        <v>0.924694372111884</v>
+      </c>
+      <c r="Y8">
+        <v>0.924694372111884</v>
+      </c>
+      <c r="Z8">
+        <v>0.924694372111884</v>
+      </c>
+      <c r="AA8">
+        <v>0.924694372111884</v>
+      </c>
+      <c r="AB8">
+        <v>0.9508868433976041</v>
+      </c>
+      <c r="AC8">
+        <v>0.9841846645866684</v>
+      </c>
+      <c r="AD8">
+        <v>0.9841846645866684</v>
+      </c>
+      <c r="AE8">
+        <v>0.9996019425656422</v>
+      </c>
+      <c r="AF8">
+        <v>0.9996019425656422</v>
+      </c>
+      <c r="AG8">
+        <v>0.9996019425656422</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.1114269029128025</v>
-      </c>
-      <c r="F8">
-        <v>0.1330529129214161</v>
-      </c>
-      <c r="G8">
-        <v>0.4085464395547558</v>
-      </c>
-      <c r="H8">
-        <v>0.4085464395547558</v>
-      </c>
-      <c r="I8">
-        <v>0.4085464395547558</v>
-      </c>
-      <c r="J8">
-        <v>0.4555092930325819</v>
-      </c>
-      <c r="K8">
-        <v>0.4555092930325819</v>
-      </c>
-      <c r="L8">
-        <v>0.4945665664950289</v>
-      </c>
-      <c r="M8">
-        <v>0.4945665664950289</v>
-      </c>
-      <c r="N8">
-        <v>0.4945665664950289</v>
-      </c>
-      <c r="O8">
-        <v>0.6029701315889086</v>
-      </c>
-      <c r="P8">
-        <v>0.6300332680823273</v>
-      </c>
-      <c r="Q8">
-        <v>0.6415990443054458</v>
-      </c>
-      <c r="R8">
-        <v>0.6676204520572104</v>
-      </c>
-      <c r="S8">
-        <v>0.7147187992769513</v>
-      </c>
-      <c r="T8">
-        <v>0.7929953897066564</v>
-      </c>
-      <c r="U8">
-        <v>0.8770433812206158</v>
-      </c>
-      <c r="V8">
-        <v>0.8934416060551681</v>
-      </c>
-      <c r="W8">
-        <v>0.9053559047264195</v>
-      </c>
-      <c r="X8">
-        <v>0.911148613148783</v>
-      </c>
-      <c r="Y8">
-        <v>0.9246943721118838</v>
-      </c>
-      <c r="Z8">
-        <v>0.9246943721118838</v>
-      </c>
-      <c r="AA8">
-        <v>0.9246943721118838</v>
-      </c>
-      <c r="AB8">
-        <v>0.9246943721118838</v>
-      </c>
-      <c r="AC8">
-        <v>0.9508868433976039</v>
-      </c>
-      <c r="AD8">
-        <v>0.9841846645866682</v>
-      </c>
-      <c r="AE8">
-        <v>0.9841846645866682</v>
-      </c>
-      <c r="AF8">
-        <v>0.9996019425656421</v>
-      </c>
-      <c r="AG8">
-        <v>0.9996019425656421</v>
-      </c>
-      <c r="AH8">
-        <v>0.9996019425656421</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B9">
         <v>0</v>
       </c>
@@ -2742,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.01679973142022475</v>
       </c>
       <c r="E9">
-        <v>0.01679973142022475</v>
+        <v>0.1055315617931928</v>
       </c>
       <c r="F9">
-        <v>0.1055315617931928</v>
+        <v>0.1828113169866224</v>
       </c>
       <c r="G9">
-        <v>0.1828113169866224</v>
+        <v>0.3944409410711899</v>
       </c>
       <c r="H9">
         <v>0.3944409410711899</v>
@@ -2760,13 +2700,13 @@
         <v>0.3944409410711899</v>
       </c>
       <c r="J9">
-        <v>0.3944409410711899</v>
+        <v>0.4306891532984561</v>
       </c>
       <c r="K9">
         <v>0.4306891532984561</v>
       </c>
       <c r="L9">
-        <v>0.4306891532984561</v>
+        <v>0.468370229627257</v>
       </c>
       <c r="M9">
         <v>0.468370229627257</v>
@@ -2775,58 +2715,58 @@
         <v>0.468370229627257</v>
       </c>
       <c r="O9">
-        <v>0.468370229627257</v>
+        <v>0.5850694223676747</v>
       </c>
       <c r="P9">
-        <v>0.5850694223676747</v>
+        <v>0.6051195559693671</v>
       </c>
       <c r="Q9">
-        <v>0.6051195559693671</v>
+        <v>0.6091896032766814</v>
       </c>
       <c r="R9">
-        <v>0.6091896032766814</v>
+        <v>0.6518240626399927</v>
       </c>
       <c r="S9">
-        <v>0.6518240626399927</v>
+        <v>0.6848755196830452</v>
       </c>
       <c r="T9">
-        <v>0.6848755196830452</v>
+        <v>0.7716559897007605</v>
       </c>
       <c r="U9">
-        <v>0.7716559897007605</v>
+        <v>0.8267383213498756</v>
       </c>
       <c r="V9">
-        <v>0.8267383213498756</v>
+        <v>0.8565857949415644</v>
       </c>
       <c r="W9">
-        <v>0.8565857949415644</v>
+        <v>0.8754781144696668</v>
       </c>
       <c r="X9">
-        <v>0.8754781144696668</v>
+        <v>0.8880889768687882</v>
       </c>
       <c r="Y9">
-        <v>0.8880889768687882</v>
+        <v>0.9116776897406942</v>
       </c>
       <c r="Z9">
         <v>0.9116776897406942</v>
       </c>
       <c r="AA9">
-        <v>0.9116776897406942</v>
+        <v>0.9140321504339939</v>
       </c>
       <c r="AB9">
         <v>0.9140321504339939</v>
       </c>
       <c r="AC9">
-        <v>0.9140321504339939</v>
+        <v>0.9706024831775995</v>
       </c>
       <c r="AD9">
-        <v>0.9706024831775995</v>
+        <v>0.9917882374662325</v>
       </c>
       <c r="AE9">
-        <v>0.9917882374662325</v>
+        <v>0.9925590131170443</v>
       </c>
       <c r="AF9">
-        <v>0.9925590131170443</v>
+        <v>0.9959191066365045</v>
       </c>
       <c r="AG9">
         <v>0.9959191066365045</v>
@@ -2835,18 +2775,15 @@
         <v>0.9959191066365045</v>
       </c>
       <c r="AI9">
-        <v>0.9959191066365045</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AK9">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2855,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.04306179413255217</v>
       </c>
       <c r="E10">
-        <v>0.04306179413255217</v>
+        <v>0.09755242167313902</v>
       </c>
       <c r="F10">
-        <v>0.09755242167313902</v>
+        <v>0.2362709463855421</v>
       </c>
       <c r="G10">
-        <v>0.2362709463855421</v>
+        <v>0.4124685925366484</v>
       </c>
       <c r="H10">
         <v>0.4124685925366484</v>
@@ -2873,13 +2810,13 @@
         <v>0.4124685925366484</v>
       </c>
       <c r="J10">
-        <v>0.4124685925366484</v>
+        <v>0.4396835263327215</v>
       </c>
       <c r="K10">
         <v>0.4396835263327215</v>
       </c>
       <c r="L10">
-        <v>0.4396835263327215</v>
+        <v>0.4619816053130182</v>
       </c>
       <c r="M10">
         <v>0.4619816053130182</v>
@@ -2888,7 +2825,7 @@
         <v>0.4619816053130182</v>
       </c>
       <c r="O10">
-        <v>0.4619816053130182</v>
+        <v>0.6316621144998736</v>
       </c>
       <c r="P10">
         <v>0.6316621144998736</v>
@@ -2897,28 +2834,28 @@
         <v>0.6316621144998736</v>
       </c>
       <c r="R10">
-        <v>0.6316621144998736</v>
+        <v>0.7069389220667766</v>
       </c>
       <c r="S10">
         <v>0.7069389220667766</v>
       </c>
       <c r="T10">
-        <v>0.7069389220667766</v>
+        <v>0.8544745769563984</v>
       </c>
       <c r="U10">
-        <v>0.8544745769563984</v>
+        <v>0.8746168539839333</v>
       </c>
       <c r="V10">
-        <v>0.8746168539839333</v>
+        <v>0.9103088359285159</v>
       </c>
       <c r="W10">
         <v>0.9103088359285159</v>
       </c>
       <c r="X10">
-        <v>0.9103088359285159</v>
+        <v>0.9250338285137903</v>
       </c>
       <c r="Y10">
-        <v>0.9250338285137903</v>
+        <v>0.931619105005419</v>
       </c>
       <c r="Z10">
         <v>0.931619105005419</v>
@@ -2930,10 +2867,10 @@
         <v>0.931619105005419</v>
       </c>
       <c r="AC10">
-        <v>0.931619105005419</v>
+        <v>0.9949175668467235</v>
       </c>
       <c r="AD10">
-        <v>0.9949175668467235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
         <v>0.9999999999999999</v>
@@ -2953,13 +2890,10 @@
       <c r="AJ10">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AK10">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2968,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1448880455028922</v>
       </c>
       <c r="E11">
-        <v>0.1448880455028922</v>
+        <v>0.1659522578685646</v>
       </c>
       <c r="F11">
-        <v>0.1659522578685645</v>
+        <v>0.5413481823729858</v>
       </c>
       <c r="G11">
         <v>0.5413481823729858</v>
@@ -2983,13 +2917,13 @@
         <v>0.5413481823729858</v>
       </c>
       <c r="I11">
-        <v>0.5413481823729858</v>
+        <v>0.5599663495358502</v>
       </c>
       <c r="J11">
         <v>0.5599663495358502</v>
       </c>
       <c r="K11">
-        <v>0.5599663495358502</v>
+        <v>0.5828448759805744</v>
       </c>
       <c r="L11">
         <v>0.5828448759805744</v>
@@ -2998,37 +2932,37 @@
         <v>0.5828448759805744</v>
       </c>
       <c r="N11">
-        <v>0.5828448759805744</v>
+        <v>0.6517615358549055</v>
       </c>
       <c r="O11">
-        <v>0.6517615358549055</v>
+        <v>0.6661346728976836</v>
       </c>
       <c r="P11">
         <v>0.6661346728976836</v>
       </c>
       <c r="Q11">
-        <v>0.6661346728976836</v>
+        <v>0.6724529781355775</v>
       </c>
       <c r="R11">
-        <v>0.6724529781355775</v>
+        <v>0.6976099609276433</v>
       </c>
       <c r="S11">
-        <v>0.6976099609276433</v>
+        <v>0.7672083333762471</v>
       </c>
       <c r="T11">
-        <v>0.7672083333762471</v>
+        <v>0.8736258474321903</v>
       </c>
       <c r="U11">
-        <v>0.8736258474321903</v>
+        <v>0.8765505397234191</v>
       </c>
       <c r="V11">
-        <v>0.8765505397234191</v>
+        <v>0.898496592059876</v>
       </c>
       <c r="W11">
         <v>0.898496592059876</v>
       </c>
       <c r="X11">
-        <v>0.898496592059876</v>
+        <v>0.9310670808350693</v>
       </c>
       <c r="Y11">
         <v>0.9310670808350693</v>
@@ -3040,16 +2974,16 @@
         <v>0.9310670808350693</v>
       </c>
       <c r="AB11">
-        <v>0.9310670808350693</v>
+        <v>0.9787340694380851</v>
       </c>
       <c r="AC11">
-        <v>0.9787340694380851</v>
+        <v>0.9934897509024786</v>
       </c>
       <c r="AD11">
         <v>0.9934897509024786</v>
       </c>
       <c r="AE11">
-        <v>0.9934897509024786</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -3064,9 +2998,6 @@
         <v>1</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
-      </c>
-      <c r="AK11">
         <v>1</v>
       </c>
     </row>
@@ -3085,57 +3016,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3153,30 +3084,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3194,30 +3125,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3235,30 +3166,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3276,30 +3207,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3317,30 +3248,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3358,36 +3289,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6029701315889086</v>
+        <v>0.6029701315889088</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3399,30 +3330,30 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3440,30 +3371,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3481,30 +3412,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3522,16 +3453,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3549,57 +3480,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3617,30 +3548,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3658,30 +3589,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3699,30 +3630,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3740,30 +3671,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3781,30 +3712,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3822,36 +3753,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7147187992769513</v>
+        <v>0.7147187992769515</v>
       </c>
       <c r="G8">
         <v>16</v>
@@ -3863,30 +3794,30 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3904,30 +3835,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3945,30 +3876,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3986,16 +3917,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4013,57 +3944,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4081,30 +4012,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4122,30 +4053,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4163,30 +4094,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4204,30 +4135,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4245,30 +4176,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4286,36 +4217,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8770433812206158</v>
+        <v>0.877043381220616</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4327,30 +4258,30 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4368,30 +4299,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4409,30 +4340,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4450,16 +4381,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4477,57 +4408,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4545,30 +4476,30 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
-      </c>
-      <c r="M2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4586,30 +4517,30 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4627,30 +4558,30 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>60</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4668,30 +4599,30 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4709,30 +4640,30 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4750,36 +4681,36 @@
         <v>600</v>
       </c>
       <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9053559047264195</v>
+        <v>0.9053559047264197</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -4791,30 +4722,30 @@
         <v>600</v>
       </c>
       <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
-      </c>
-      <c r="M8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4832,30 +4763,30 @@
         <v>600</v>
       </c>
       <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4873,30 +4804,30 @@
         <v>600</v>
       </c>
       <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>59</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
-      </c>
-      <c r="M10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4914,16 +4845,16 @@
         <v>600</v>
       </c>
       <c r="J11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/38_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/38_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2594822623451014</v>
+        <v>0.3029481586064466</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2863100281854559</v>
+        <v>0.3365784514906227</v>
       </c>
       <c r="G2">
-        <v>0.01484970212347569</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03842798669172542</v>
+        <v>0.02584271204182863</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.02898450025395615</v>
+        <v>0.0140047074670232</v>
       </c>
       <c r="N2">
-        <v>0.006796162231385282</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1063681075045601</v>
+        <v>0.111009929286772</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.04349785657225463</v>
+        <v>0.03219811300892636</v>
       </c>
       <c r="S2">
-        <v>0.02718213693111285</v>
+        <v>0.01174533161024793</v>
       </c>
       <c r="T2">
-        <v>0.1368374704633588</v>
+        <v>0.1492051933425404</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.02089372177002465</v>
+        <v>0.003862407444920008</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.001164550995657963</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -764,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.02786791350161992</v>
+        <v>0.01260499570067202</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001337600430311131</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -799,25 +799,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1209677177294262</v>
+        <v>0.1272648686718318</v>
       </c>
       <c r="E3">
-        <v>0.001530384074710471</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.281477925078949</v>
+        <v>0.3249242462101307</v>
       </c>
       <c r="G3">
-        <v>0.09475174876995865</v>
+        <v>0.09498136351874262</v>
       </c>
       <c r="H3">
-        <v>0.01662337133926062</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03494118412263348</v>
+        <v>0.02132798549611662</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003064560679502734</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1650537900344939</v>
+        <v>0.1815544104637297</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.008131822983222901</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1787322710902346</v>
+        <v>0.1983986977884582</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02446025681675303</v>
+        <v>0.008421307462903992</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02395583166588537</v>
+        <v>0.007800135993615124</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.04630913561496917</v>
+        <v>0.03532698439447129</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1274306401316332</v>
+        <v>0.1620276971623723</v>
       </c>
       <c r="E4">
-        <v>0.06175116199598285</v>
+        <v>0.05778919319166807</v>
       </c>
       <c r="F4">
-        <v>0.2069451690788155</v>
+        <v>0.2882235162623813</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.04654422676470755</v>
+        <v>0.03365458945420133</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.07408495997662015</v>
+        <v>0.07736390185672794</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01628189787034458</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.06534797125401511</v>
+        <v>0.06349761272799435</v>
       </c>
       <c r="O4">
-        <v>0.09105767185261825</v>
+        <v>0.104300932181875</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,25 +951,25 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01681151351174667</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.06369340532691475</v>
+        <v>0.06087168630687338</v>
       </c>
       <c r="T4">
-        <v>0.1042114379795283</v>
+        <v>0.1251769948664442</v>
       </c>
       <c r="U4">
-        <v>0.00783367758787439</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.02019432031054449</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.00443032575064721</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02004314242112464</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03783947797740139</v>
+        <v>0.01983946764163805</v>
       </c>
       <c r="AC4">
-        <v>0.02990977738465086</v>
+        <v>0.007254408347824038</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.005589222824830173</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1468271685082267</v>
+        <v>0.1650892481949174</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3677456167182964</v>
+        <v>0.4579294324759122</v>
       </c>
       <c r="H5">
-        <v>0.03662167493431045</v>
+        <v>0.01900549055293076</v>
       </c>
       <c r="I5">
-        <v>0.01672875968744563</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01131175017945562</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1049,13 +1049,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.01189745659383988</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.1190851919822923</v>
+        <v>0.1283156533050573</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,25 +1064,25 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02350537490924197</v>
+        <v>0.001619076029624356</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.1442046755656515</v>
+        <v>0.1616129820758966</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.03782307641603665</v>
+        <v>0.02059801772372466</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.01818553047686462</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1097,13 +1097,13 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.05685814291883589</v>
+        <v>0.0458300996419365</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.009205581109502344</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06962674812938867</v>
+        <v>0.07346823272080995</v>
       </c>
       <c r="E6">
-        <v>0.03248779216976278</v>
+        <v>0.009116196076124792</v>
       </c>
       <c r="F6">
-        <v>0.143935795682728</v>
+        <v>0.202226255869943</v>
       </c>
       <c r="G6">
-        <v>0.1962511609819251</v>
+        <v>0.2928750158532308</v>
       </c>
       <c r="H6">
-        <v>0.002127405292562088</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.05013887039198361</v>
+        <v>0.03970086931813481</v>
       </c>
       <c r="J6">
-        <v>0.02415618018635183</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03142123563133246</v>
+        <v>0.00726813428571501</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1162,58 +1162,58 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1045460772338665</v>
+        <v>0.1339742401751404</v>
       </c>
       <c r="P6">
-        <v>0.009376001779994338</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01088471849442238</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.10773133945474</v>
+        <v>0.139493461323506</v>
       </c>
       <c r="U6">
-        <v>0.0347537344819739</v>
+        <v>0.01304247776451346</v>
       </c>
       <c r="V6">
-        <v>0.02677703740286917</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01084754937459363</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01380710138559342</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.02705725099049983</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.004218661818503515</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.07849531008734933</v>
+        <v>0.08883511661288192</v>
       </c>
       <c r="AD6">
-        <v>0.004712864813545131</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.008830806041598306</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.007816358174416135</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1239,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06344134805539126</v>
+        <v>0.05438875985291804</v>
       </c>
       <c r="E7">
-        <v>0.05539252241577317</v>
+        <v>0.04320816928047547</v>
       </c>
       <c r="F7">
-        <v>0.1712749856848626</v>
+        <v>0.2041800221133172</v>
       </c>
       <c r="G7">
-        <v>0.1499410844853876</v>
+        <v>0.1745451877531098</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01251500114360144</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.004552461033699663</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1378749008796504</v>
+        <v>0.1577841017626736</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1281,28 +1281,28 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.07080282487531797</v>
+        <v>0.06461455700859264</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.1933851335587922</v>
+        <v>0.2348931375345004</v>
       </c>
       <c r="U7">
-        <v>0.01404265376361442</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.03496981437722483</v>
+        <v>0.0148390695902534</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.02234871067702421</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.004623393736047616</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.06139558233099856</v>
+        <v>0.05154699510415944</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.003439582982614084</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1114269029128025</v>
+        <v>0.1456257432038502</v>
       </c>
       <c r="E8">
-        <v>0.02162601000861368</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2754935266333397</v>
+        <v>0.4306972004888419</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04696285347782611</v>
+        <v>0.03361721826325851</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03905727346244701</v>
+        <v>0.01988099839988161</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1379,37 +1379,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1084035650938797</v>
+        <v>0.140372588733059</v>
       </c>
       <c r="O8">
-        <v>0.02706313649341871</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.01156577622311846</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.02602140775176459</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.04709834721974081</v>
+        <v>0.0338526433459762</v>
       </c>
       <c r="S8">
-        <v>0.0782765904297051</v>
+        <v>0.08802592384567023</v>
       </c>
       <c r="T8">
-        <v>0.08404799151395934</v>
+        <v>0.0980539336892018</v>
       </c>
       <c r="U8">
-        <v>0.01639822483455234</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.01191429867125142</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.005792708422363596</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.01354575896310068</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.02619247128572007</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.0332978211890643</v>
+        <v>0.009873750030260628</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.0154172779789738</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.0003980574343581521</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01679973142022475</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08873183037296804</v>
+        <v>0.1140037051742901</v>
       </c>
       <c r="F9">
-        <v>0.0772797551934296</v>
+        <v>0.09211346418712267</v>
       </c>
       <c r="G9">
-        <v>0.2116296240845675</v>
+        <v>0.3489185375484984</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03624821222726621</v>
+        <v>0.0136831055382868</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.03768107632880083</v>
+        <v>0.01642197513115287</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1492,58 +1492,58 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1166991927404177</v>
+        <v>0.167462339736239</v>
       </c>
       <c r="P9">
-        <v>0.02005013360169238</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.004070047307314271</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.04263445936331129</v>
+        <v>0.02589019347824469</v>
       </c>
       <c r="S9">
-        <v>0.03305145704305248</v>
+        <v>0.007572619861031963</v>
       </c>
       <c r="T9">
-        <v>0.08678047001771538</v>
+        <v>0.1102737481350973</v>
       </c>
       <c r="U9">
-        <v>0.05508233164911498</v>
+        <v>0.04968386579019222</v>
       </c>
       <c r="V9">
-        <v>0.02984747359168887</v>
+        <v>0.001448317604043758</v>
       </c>
       <c r="W9">
-        <v>0.01889231952810245</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01261086239912132</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.02358871287190605</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.002354460693299739</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.05657033274360559</v>
+        <v>0.05252812781580016</v>
       </c>
       <c r="AD9">
-        <v>0.02118575428863301</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.0007707756508118532</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.003360093519460246</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.00408089336349522</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04306179413255217</v>
+        <v>0.0275862047933245</v>
       </c>
       <c r="E10">
-        <v>0.05449062754058685</v>
+        <v>0.04412015453928307</v>
       </c>
       <c r="F10">
-        <v>0.1387185247124031</v>
+        <v>0.1659715954805377</v>
       </c>
       <c r="G10">
-        <v>0.1761976461511063</v>
+        <v>0.2201921697304478</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02721493379607308</v>
+        <v>0.004660750980132073</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.02229807898029673</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1696805091868555</v>
+        <v>0.2107639095391059</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1611,28 +1611,28 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.0752768075669029</v>
+        <v>0.07419126011021089</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.1475356548896219</v>
+        <v>0.1787272269653071</v>
       </c>
       <c r="U10">
-        <v>0.0201422770275349</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.0356919819445826</v>
+        <v>0.01692439006537705</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.01472499258527447</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.00658527649162868</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.06329846184130453</v>
+        <v>0.05686233779627386</v>
       </c>
       <c r="AD10">
-        <v>0.005082433153276338</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1448880455028922</v>
+        <v>0.1784331795841008</v>
       </c>
       <c r="E11">
-        <v>0.02106421236567234</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3753959245044212</v>
+        <v>0.5199805267145248</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01861816716286446</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0228785264447242</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1709,37 +1709,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.06891665987433107</v>
+        <v>0.06586511756533854</v>
       </c>
       <c r="O11">
-        <v>0.01437313704277812</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.00631830523789394</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.02515698279206582</v>
+        <v>0.0010256783085461</v>
       </c>
       <c r="S11">
-        <v>0.06959837244860376</v>
+        <v>0.06687522239237025</v>
       </c>
       <c r="T11">
-        <v>0.1064175140559432</v>
+        <v>0.1214307551319812</v>
       </c>
       <c r="U11">
-        <v>0.002924692291228811</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.02194605233645687</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.03257048877519335</v>
+        <v>0.01201039307161906</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1751,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04766698860301574</v>
+        <v>0.03437912723151924</v>
       </c>
       <c r="AC11">
-        <v>0.01475568146439355</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.00651024909752155</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2594822623451014</v>
+        <v>0.3029481586064466</v>
       </c>
       <c r="E2">
-        <v>0.2594822623451014</v>
+        <v>0.3029481586064466</v>
       </c>
       <c r="F2">
-        <v>0.5457922905305573</v>
+        <v>0.6395266100970693</v>
       </c>
       <c r="G2">
-        <v>0.560641992654033</v>
+        <v>0.6395266100970693</v>
       </c>
       <c r="H2">
-        <v>0.560641992654033</v>
+        <v>0.6395266100970693</v>
       </c>
       <c r="I2">
-        <v>0.560641992654033</v>
+        <v>0.6395266100970693</v>
       </c>
       <c r="J2">
-        <v>0.560641992654033</v>
+        <v>0.6395266100970693</v>
       </c>
       <c r="K2">
-        <v>0.5990699793457585</v>
+        <v>0.665369322138898</v>
       </c>
       <c r="L2">
-        <v>0.5990699793457585</v>
+        <v>0.665369322138898</v>
       </c>
       <c r="M2">
-        <v>0.6280544795997146</v>
+        <v>0.6793740296059212</v>
       </c>
       <c r="N2">
-        <v>0.6348506418310998</v>
+        <v>0.6793740296059212</v>
       </c>
       <c r="O2">
-        <v>0.74121874933566</v>
+        <v>0.7903839588926932</v>
       </c>
       <c r="P2">
-        <v>0.74121874933566</v>
+        <v>0.7903839588926932</v>
       </c>
       <c r="Q2">
-        <v>0.74121874933566</v>
+        <v>0.7903839588926932</v>
       </c>
       <c r="R2">
-        <v>0.7847166059079146</v>
+        <v>0.8225820719016196</v>
       </c>
       <c r="S2">
-        <v>0.8118987428390274</v>
+        <v>0.8343274035118675</v>
       </c>
       <c r="T2">
-        <v>0.9487362133023862</v>
+        <v>0.983532596854408</v>
       </c>
       <c r="U2">
-        <v>0.9487362133023862</v>
+        <v>0.983532596854408</v>
       </c>
       <c r="V2">
-        <v>0.9696299350724109</v>
+        <v>0.987395004299328</v>
       </c>
       <c r="W2">
-        <v>0.9696299350724109</v>
+        <v>0.987395004299328</v>
       </c>
       <c r="X2">
-        <v>0.9707944860680688</v>
+        <v>0.987395004299328</v>
       </c>
       <c r="Y2">
-        <v>0.9707944860680688</v>
+        <v>0.987395004299328</v>
       </c>
       <c r="Z2">
-        <v>0.9707944860680688</v>
+        <v>0.987395004299328</v>
       </c>
       <c r="AA2">
-        <v>0.9707944860680688</v>
+        <v>0.987395004299328</v>
       </c>
       <c r="AB2">
-        <v>0.9707944860680688</v>
+        <v>0.987395004299328</v>
       </c>
       <c r="AC2">
-        <v>0.9986623995696887</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9986623995696887</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,79 +2022,79 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1209677177294262</v>
+        <v>0.1272648686718318</v>
       </c>
       <c r="E3">
-        <v>0.1224981018041367</v>
+        <v>0.1272648686718318</v>
       </c>
       <c r="F3">
-        <v>0.4039760268830857</v>
+        <v>0.4521891148819625</v>
       </c>
       <c r="G3">
-        <v>0.4987277756530444</v>
+        <v>0.5471704784007051</v>
       </c>
       <c r="H3">
-        <v>0.515351146992305</v>
+        <v>0.5471704784007051</v>
       </c>
       <c r="I3">
-        <v>0.515351146992305</v>
+        <v>0.5471704784007051</v>
       </c>
       <c r="J3">
-        <v>0.5502923311149385</v>
+        <v>0.5684984638968217</v>
       </c>
       <c r="K3">
-        <v>0.5502923311149385</v>
+        <v>0.5684984638968217</v>
       </c>
       <c r="L3">
-        <v>0.5502923311149385</v>
+        <v>0.5684984638968217</v>
       </c>
       <c r="M3">
-        <v>0.5533568917944413</v>
+        <v>0.5684984638968217</v>
       </c>
       <c r="N3">
-        <v>0.5533568917944413</v>
+        <v>0.5684984638968217</v>
       </c>
       <c r="O3">
-        <v>0.7184106818289351</v>
+        <v>0.7500528743605513</v>
       </c>
       <c r="P3">
-        <v>0.7184106818289351</v>
+        <v>0.7500528743605513</v>
       </c>
       <c r="Q3">
-        <v>0.7184106818289351</v>
+        <v>0.7500528743605513</v>
       </c>
       <c r="R3">
-        <v>0.726542504812158</v>
+        <v>0.7500528743605513</v>
       </c>
       <c r="S3">
-        <v>0.726542504812158</v>
+        <v>0.7500528743605513</v>
       </c>
       <c r="T3">
-        <v>0.9052747759023926</v>
+        <v>0.9484515721490095</v>
       </c>
       <c r="U3">
-        <v>0.9052747759023926</v>
+        <v>0.9484515721490095</v>
       </c>
       <c r="V3">
-        <v>0.9297350327191456</v>
+        <v>0.9568728796119136</v>
       </c>
       <c r="W3">
-        <v>0.9297350327191456</v>
+        <v>0.9568728796119136</v>
       </c>
       <c r="X3">
-        <v>0.9536908643850309</v>
+        <v>0.9646730156055288</v>
       </c>
       <c r="Y3">
-        <v>0.9536908643850309</v>
+        <v>0.9646730156055288</v>
       </c>
       <c r="Z3">
-        <v>0.9536908643850309</v>
+        <v>0.9646730156055288</v>
       </c>
       <c r="AA3">
-        <v>0.9536908643850309</v>
+        <v>0.9646730156055288</v>
       </c>
       <c r="AB3">
-        <v>0.9536908643850309</v>
+        <v>0.9646730156055288</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -2132,85 +2132,85 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1274306401316332</v>
+        <v>0.1620276971623723</v>
       </c>
       <c r="E4">
-        <v>0.1891818021276161</v>
+        <v>0.2198168903540404</v>
       </c>
       <c r="F4">
-        <v>0.3961269712064316</v>
+        <v>0.5080404066164217</v>
       </c>
       <c r="G4">
-        <v>0.3961269712064316</v>
+        <v>0.5080404066164217</v>
       </c>
       <c r="H4">
-        <v>0.4426711979711391</v>
+        <v>0.541694996070623</v>
       </c>
       <c r="I4">
-        <v>0.4426711979711391</v>
+        <v>0.541694996070623</v>
       </c>
       <c r="J4">
-        <v>0.4426711979711391</v>
+        <v>0.541694996070623</v>
       </c>
       <c r="K4">
-        <v>0.5167561579477593</v>
+        <v>0.6190588979273509</v>
       </c>
       <c r="L4">
-        <v>0.5167561579477593</v>
+        <v>0.6190588979273509</v>
       </c>
       <c r="M4">
-        <v>0.5330380558181039</v>
+        <v>0.6190588979273509</v>
       </c>
       <c r="N4">
-        <v>0.5983860270721191</v>
+        <v>0.6825565106553453</v>
       </c>
       <c r="O4">
-        <v>0.6894436989247373</v>
+        <v>0.7868574428372203</v>
       </c>
       <c r="P4">
-        <v>0.6894436989247373</v>
+        <v>0.7868574428372203</v>
       </c>
       <c r="Q4">
-        <v>0.6894436989247373</v>
+        <v>0.7868574428372203</v>
       </c>
       <c r="R4">
-        <v>0.706255212436484</v>
+        <v>0.7868574428372203</v>
       </c>
       <c r="S4">
-        <v>0.7699486177633987</v>
+        <v>0.8477291291440936</v>
       </c>
       <c r="T4">
-        <v>0.8741600557429271</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="U4">
-        <v>0.8819937333308014</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="V4">
-        <v>0.9021880536413459</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="W4">
-        <v>0.9066183793919931</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="X4">
-        <v>0.9266615218131177</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="Y4">
-        <v>0.9266615218131177</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="Z4">
-        <v>0.9266615218131177</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="AA4">
-        <v>0.9266615218131177</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="AB4">
-        <v>0.9645009997905191</v>
+        <v>0.9927455916521759</v>
       </c>
       <c r="AC4">
-        <v>0.9944107771751699</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9944107771751699</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -2245,100 +2245,100 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1468271685082267</v>
+        <v>0.1650892481949174</v>
       </c>
       <c r="F5">
-        <v>0.1468271685082267</v>
+        <v>0.1650892481949174</v>
       </c>
       <c r="G5">
-        <v>0.5145727852265231</v>
+        <v>0.6230186806708295</v>
       </c>
       <c r="H5">
-        <v>0.5511944601608335</v>
+        <v>0.6420241712237603</v>
       </c>
       <c r="I5">
-        <v>0.5679232198482791</v>
+        <v>0.6420241712237603</v>
       </c>
       <c r="J5">
-        <v>0.5679232198482791</v>
+        <v>0.6420241712237603</v>
       </c>
       <c r="K5">
-        <v>0.5792349700277347</v>
+        <v>0.6420241712237603</v>
       </c>
       <c r="L5">
-        <v>0.5792349700277347</v>
+        <v>0.6420241712237603</v>
       </c>
       <c r="M5">
-        <v>0.5792349700277347</v>
+        <v>0.6420241712237603</v>
       </c>
       <c r="N5">
-        <v>0.5911324266215746</v>
+        <v>0.6420241712237603</v>
       </c>
       <c r="O5">
-        <v>0.5911324266215746</v>
+        <v>0.6420241712237603</v>
       </c>
       <c r="P5">
-        <v>0.7102176186038669</v>
+        <v>0.7703398245288177</v>
       </c>
       <c r="Q5">
-        <v>0.7102176186038669</v>
+        <v>0.7703398245288177</v>
       </c>
       <c r="R5">
-        <v>0.7102176186038669</v>
+        <v>0.7703398245288177</v>
       </c>
       <c r="S5">
-        <v>0.7337229935131089</v>
+        <v>0.7719589005584421</v>
       </c>
       <c r="T5">
-        <v>0.7337229935131089</v>
+        <v>0.7719589005584421</v>
       </c>
       <c r="U5">
-        <v>0.8779276690787604</v>
+        <v>0.9335718826343387</v>
       </c>
       <c r="V5">
-        <v>0.8779276690787604</v>
+        <v>0.9335718826343387</v>
       </c>
       <c r="W5">
-        <v>0.9157507454947971</v>
+        <v>0.9541699003580633</v>
       </c>
       <c r="X5">
-        <v>0.9157507454947971</v>
+        <v>0.9541699003580633</v>
       </c>
       <c r="Y5">
-        <v>0.9339362759716617</v>
+        <v>0.9541699003580633</v>
       </c>
       <c r="Z5">
-        <v>0.9339362759716617</v>
+        <v>0.9541699003580633</v>
       </c>
       <c r="AA5">
-        <v>0.9339362759716617</v>
+        <v>0.9541699003580633</v>
       </c>
       <c r="AB5">
-        <v>0.9339362759716617</v>
+        <v>0.9541699003580633</v>
       </c>
       <c r="AC5">
-        <v>0.9339362759716617</v>
+        <v>0.9541699003580633</v>
       </c>
       <c r="AD5">
-        <v>0.9907944188904976</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE5">
-        <v>0.9907944188904976</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2352,88 +2352,88 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06962674812938867</v>
+        <v>0.07346823272080995</v>
       </c>
       <c r="E6">
-        <v>0.1021145402991515</v>
+        <v>0.08258442879693474</v>
       </c>
       <c r="F6">
-        <v>0.2460503359818794</v>
+        <v>0.2848106846668778</v>
       </c>
       <c r="G6">
-        <v>0.4423014969638046</v>
+        <v>0.5776857005201086</v>
       </c>
       <c r="H6">
-        <v>0.4444289022563667</v>
+        <v>0.5776857005201086</v>
       </c>
       <c r="I6">
-        <v>0.4945677726483503</v>
+        <v>0.6173865698382434</v>
       </c>
       <c r="J6">
-        <v>0.5187239528347021</v>
+        <v>0.6173865698382434</v>
       </c>
       <c r="K6">
-        <v>0.5187239528347021</v>
+        <v>0.6173865698382434</v>
       </c>
       <c r="L6">
-        <v>0.5501451884660346</v>
+        <v>0.6246547041239584</v>
       </c>
       <c r="M6">
-        <v>0.5501451884660346</v>
+        <v>0.6246547041239584</v>
       </c>
       <c r="N6">
-        <v>0.5501451884660346</v>
+        <v>0.6246547041239584</v>
       </c>
       <c r="O6">
-        <v>0.654691265699901</v>
+        <v>0.7586289442990988</v>
       </c>
       <c r="P6">
-        <v>0.6640672674798953</v>
+        <v>0.7586289442990988</v>
       </c>
       <c r="Q6">
-        <v>0.6640672674798953</v>
+        <v>0.7586289442990988</v>
       </c>
       <c r="R6">
-        <v>0.6749519859743177</v>
+        <v>0.7586289442990988</v>
       </c>
       <c r="S6">
-        <v>0.6749519859743177</v>
+        <v>0.7586289442990988</v>
       </c>
       <c r="T6">
-        <v>0.7826833254290577</v>
+        <v>0.8981224056226047</v>
       </c>
       <c r="U6">
-        <v>0.8174370599110317</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="V6">
-        <v>0.8442140973139008</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="W6">
-        <v>0.8550616466884945</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="X6">
-        <v>0.8688687480740879</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="Y6">
-        <v>0.8959259990645877</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="Z6">
-        <v>0.8959259990645877</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="AA6">
-        <v>0.9001446608830912</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="AB6">
-        <v>0.9001446608830912</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="AC6">
-        <v>0.9786399709704405</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9833528357839857</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9921836418255841</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -2462,88 +2462,88 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06344134805539126</v>
+        <v>0.05438875985291804</v>
       </c>
       <c r="E7">
-        <v>0.1188338704711644</v>
+        <v>0.09759692913339352</v>
       </c>
       <c r="F7">
-        <v>0.2901088561560271</v>
+        <v>0.3017769512467107</v>
       </c>
       <c r="G7">
-        <v>0.4400499406414146</v>
+        <v>0.4763221389998205</v>
       </c>
       <c r="H7">
-        <v>0.4400499406414146</v>
+        <v>0.4763221389998205</v>
       </c>
       <c r="I7">
-        <v>0.4400499406414146</v>
+        <v>0.4763221389998205</v>
       </c>
       <c r="J7">
-        <v>0.4525649417850161</v>
+        <v>0.4763221389998205</v>
       </c>
       <c r="K7">
-        <v>0.4525649417850161</v>
+        <v>0.4763221389998205</v>
       </c>
       <c r="L7">
-        <v>0.4571174028187157</v>
+        <v>0.4763221389998205</v>
       </c>
       <c r="M7">
-        <v>0.4571174028187157</v>
+        <v>0.4763221389998205</v>
       </c>
       <c r="N7">
-        <v>0.4571174028187157</v>
+        <v>0.4763221389998205</v>
       </c>
       <c r="O7">
-        <v>0.5949923036983662</v>
+        <v>0.6341062407624941</v>
       </c>
       <c r="P7">
-        <v>0.5949923036983662</v>
+        <v>0.6341062407624941</v>
       </c>
       <c r="Q7">
-        <v>0.5949923036983662</v>
+        <v>0.6341062407624941</v>
       </c>
       <c r="R7">
-        <v>0.6657951285736842</v>
+        <v>0.6987207977710868</v>
       </c>
       <c r="S7">
-        <v>0.6657951285736842</v>
+        <v>0.6987207977710868</v>
       </c>
       <c r="T7">
-        <v>0.8591802621324764</v>
+        <v>0.9336139353055871</v>
       </c>
       <c r="U7">
-        <v>0.8732229158960909</v>
+        <v>0.9336139353055871</v>
       </c>
       <c r="V7">
-        <v>0.9081927302733157</v>
+        <v>0.9484530048958405</v>
       </c>
       <c r="W7">
-        <v>0.9081927302733157</v>
+        <v>0.9484530048958405</v>
       </c>
       <c r="X7">
-        <v>0.9305414409503399</v>
+        <v>0.9484530048958405</v>
       </c>
       <c r="Y7">
-        <v>0.9351648346863874</v>
+        <v>0.9484530048958405</v>
       </c>
       <c r="Z7">
-        <v>0.9351648346863874</v>
+        <v>0.9484530048958405</v>
       </c>
       <c r="AA7">
-        <v>0.9351648346863874</v>
+        <v>0.9484530048958405</v>
       </c>
       <c r="AB7">
-        <v>0.9351648346863874</v>
+        <v>0.9484530048958405</v>
       </c>
       <c r="AC7">
-        <v>0.996560417017386</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.996560417017386</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.996560417017386</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1114269029128025</v>
+        <v>0.1456257432038502</v>
       </c>
       <c r="E8">
-        <v>0.1330529129214162</v>
+        <v>0.1456257432038502</v>
       </c>
       <c r="F8">
-        <v>0.4085464395547559</v>
+        <v>0.576322943692692</v>
       </c>
       <c r="G8">
-        <v>0.4085464395547559</v>
+        <v>0.576322943692692</v>
       </c>
       <c r="H8">
-        <v>0.4085464395547559</v>
+        <v>0.576322943692692</v>
       </c>
       <c r="I8">
-        <v>0.455509293032582</v>
+        <v>0.6099401619559505</v>
       </c>
       <c r="J8">
-        <v>0.455509293032582</v>
+        <v>0.6099401619559505</v>
       </c>
       <c r="K8">
-        <v>0.4945665664950291</v>
+        <v>0.629821160355832</v>
       </c>
       <c r="L8">
-        <v>0.4945665664950291</v>
+        <v>0.629821160355832</v>
       </c>
       <c r="M8">
-        <v>0.4945665664950291</v>
+        <v>0.629821160355832</v>
       </c>
       <c r="N8">
-        <v>0.6029701315889088</v>
+        <v>0.770193749088891</v>
       </c>
       <c r="O8">
-        <v>0.6300332680823275</v>
+        <v>0.770193749088891</v>
       </c>
       <c r="P8">
-        <v>0.641599044305446</v>
+        <v>0.770193749088891</v>
       </c>
       <c r="Q8">
-        <v>0.6676204520572107</v>
+        <v>0.770193749088891</v>
       </c>
       <c r="R8">
-        <v>0.7147187992769515</v>
+        <v>0.8040463924348672</v>
       </c>
       <c r="S8">
-        <v>0.7929953897066566</v>
+        <v>0.8920723162805374</v>
       </c>
       <c r="T8">
-        <v>0.877043381220616</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="U8">
-        <v>0.8934416060551683</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="V8">
-        <v>0.9053559047264197</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="W8">
-        <v>0.9111486131487833</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="X8">
-        <v>0.924694372111884</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="Y8">
-        <v>0.924694372111884</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="Z8">
-        <v>0.924694372111884</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="AA8">
-        <v>0.924694372111884</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="AB8">
-        <v>0.9508868433976041</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="AC8">
-        <v>0.9841846645866684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.9841846645866684</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE8">
-        <v>0.9996019425656422</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.9996019425656422</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.9996019425656422</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01679973142022475</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1055315617931928</v>
+        <v>0.1140037051742901</v>
       </c>
       <c r="F9">
-        <v>0.1828113169866224</v>
+        <v>0.2061171693614128</v>
       </c>
       <c r="G9">
-        <v>0.3944409410711899</v>
+        <v>0.5550357069099112</v>
       </c>
       <c r="H9">
-        <v>0.3944409410711899</v>
+        <v>0.5550357069099112</v>
       </c>
       <c r="I9">
-        <v>0.3944409410711899</v>
+        <v>0.5550357069099112</v>
       </c>
       <c r="J9">
-        <v>0.4306891532984561</v>
+        <v>0.568718812448198</v>
       </c>
       <c r="K9">
-        <v>0.4306891532984561</v>
+        <v>0.568718812448198</v>
       </c>
       <c r="L9">
-        <v>0.468370229627257</v>
+        <v>0.5851407875793508</v>
       </c>
       <c r="M9">
-        <v>0.468370229627257</v>
+        <v>0.5851407875793508</v>
       </c>
       <c r="N9">
-        <v>0.468370229627257</v>
+        <v>0.5851407875793508</v>
       </c>
       <c r="O9">
-        <v>0.5850694223676747</v>
+        <v>0.7526031273155899</v>
       </c>
       <c r="P9">
-        <v>0.6051195559693671</v>
+        <v>0.7526031273155899</v>
       </c>
       <c r="Q9">
-        <v>0.6091896032766814</v>
+        <v>0.7526031273155899</v>
       </c>
       <c r="R9">
-        <v>0.6518240626399927</v>
+        <v>0.7784933207938346</v>
       </c>
       <c r="S9">
-        <v>0.6848755196830452</v>
+        <v>0.7860659406548666</v>
       </c>
       <c r="T9">
-        <v>0.7716559897007605</v>
+        <v>0.8963396887899638</v>
       </c>
       <c r="U9">
-        <v>0.8267383213498756</v>
+        <v>0.9460235545801561</v>
       </c>
       <c r="V9">
-        <v>0.8565857949415644</v>
+        <v>0.9474718721841998</v>
       </c>
       <c r="W9">
-        <v>0.8754781144696668</v>
+        <v>0.9474718721841998</v>
       </c>
       <c r="X9">
-        <v>0.8880889768687882</v>
+        <v>0.9474718721841998</v>
       </c>
       <c r="Y9">
-        <v>0.9116776897406942</v>
+        <v>0.9474718721841998</v>
       </c>
       <c r="Z9">
-        <v>0.9116776897406942</v>
+        <v>0.9474718721841998</v>
       </c>
       <c r="AA9">
-        <v>0.9140321504339939</v>
+        <v>0.9474718721841998</v>
       </c>
       <c r="AB9">
-        <v>0.9140321504339939</v>
+        <v>0.9474718721841998</v>
       </c>
       <c r="AC9">
-        <v>0.9706024831775995</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9917882374662325</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9925590131170443</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9959191066365045</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9959191066365045</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9959191066365045</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04306179413255217</v>
+        <v>0.0275862047933245</v>
       </c>
       <c r="E10">
-        <v>0.09755242167313902</v>
+        <v>0.07170635933260756</v>
       </c>
       <c r="F10">
-        <v>0.2362709463855421</v>
+        <v>0.2376779548131453</v>
       </c>
       <c r="G10">
-        <v>0.4124685925366484</v>
+        <v>0.4578701245435931</v>
       </c>
       <c r="H10">
-        <v>0.4124685925366484</v>
+        <v>0.4578701245435931</v>
       </c>
       <c r="I10">
-        <v>0.4124685925366484</v>
+        <v>0.4578701245435931</v>
       </c>
       <c r="J10">
-        <v>0.4396835263327215</v>
+        <v>0.4625308755237252</v>
       </c>
       <c r="K10">
-        <v>0.4396835263327215</v>
+        <v>0.4625308755237252</v>
       </c>
       <c r="L10">
-        <v>0.4619816053130182</v>
+        <v>0.4625308755237252</v>
       </c>
       <c r="M10">
-        <v>0.4619816053130182</v>
+        <v>0.4625308755237252</v>
       </c>
       <c r="N10">
-        <v>0.4619816053130182</v>
+        <v>0.4625308755237252</v>
       </c>
       <c r="O10">
-        <v>0.6316621144998736</v>
+        <v>0.6732947850628311</v>
       </c>
       <c r="P10">
-        <v>0.6316621144998736</v>
+        <v>0.6732947850628311</v>
       </c>
       <c r="Q10">
-        <v>0.6316621144998736</v>
+        <v>0.6732947850628311</v>
       </c>
       <c r="R10">
-        <v>0.7069389220667766</v>
+        <v>0.7474860451730421</v>
       </c>
       <c r="S10">
-        <v>0.7069389220667766</v>
+        <v>0.7474860451730421</v>
       </c>
       <c r="T10">
-        <v>0.8544745769563984</v>
+        <v>0.9262132721383491</v>
       </c>
       <c r="U10">
-        <v>0.8746168539839333</v>
+        <v>0.9262132721383491</v>
       </c>
       <c r="V10">
-        <v>0.9103088359285159</v>
+        <v>0.9431376622037262</v>
       </c>
       <c r="W10">
-        <v>0.9103088359285159</v>
+        <v>0.9431376622037262</v>
       </c>
       <c r="X10">
-        <v>0.9250338285137903</v>
+        <v>0.9431376622037262</v>
       </c>
       <c r="Y10">
-        <v>0.931619105005419</v>
+        <v>0.9431376622037262</v>
       </c>
       <c r="Z10">
-        <v>0.931619105005419</v>
+        <v>0.9431376622037262</v>
       </c>
       <c r="AA10">
-        <v>0.931619105005419</v>
+        <v>0.9431376622037262</v>
       </c>
       <c r="AB10">
-        <v>0.931619105005419</v>
+        <v>0.9431376622037262</v>
       </c>
       <c r="AC10">
-        <v>0.9949175668467235</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,85 +2902,85 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1448880455028922</v>
+        <v>0.1784331795841008</v>
       </c>
       <c r="E11">
-        <v>0.1659522578685646</v>
+        <v>0.1784331795841008</v>
       </c>
       <c r="F11">
-        <v>0.5413481823729858</v>
+        <v>0.6984137062986256</v>
       </c>
       <c r="G11">
-        <v>0.5413481823729858</v>
+        <v>0.6984137062986256</v>
       </c>
       <c r="H11">
-        <v>0.5413481823729858</v>
+        <v>0.6984137062986256</v>
       </c>
       <c r="I11">
-        <v>0.5599663495358502</v>
+        <v>0.6984137062986256</v>
       </c>
       <c r="J11">
-        <v>0.5599663495358502</v>
+        <v>0.6984137062986256</v>
       </c>
       <c r="K11">
-        <v>0.5828448759805744</v>
+        <v>0.6984137062986256</v>
       </c>
       <c r="L11">
-        <v>0.5828448759805744</v>
+        <v>0.6984137062986256</v>
       </c>
       <c r="M11">
-        <v>0.5828448759805744</v>
+        <v>0.6984137062986256</v>
       </c>
       <c r="N11">
-        <v>0.6517615358549055</v>
+        <v>0.7642788238639642</v>
       </c>
       <c r="O11">
-        <v>0.6661346728976836</v>
+        <v>0.7642788238639642</v>
       </c>
       <c r="P11">
-        <v>0.6661346728976836</v>
+        <v>0.7642788238639642</v>
       </c>
       <c r="Q11">
-        <v>0.6724529781355775</v>
+        <v>0.7642788238639642</v>
       </c>
       <c r="R11">
-        <v>0.6976099609276433</v>
+        <v>0.7653045021725102</v>
       </c>
       <c r="S11">
-        <v>0.7672083333762471</v>
+        <v>0.8321797245648804</v>
       </c>
       <c r="T11">
-        <v>0.8736258474321903</v>
+        <v>0.9536104796968616</v>
       </c>
       <c r="U11">
-        <v>0.8765505397234191</v>
+        <v>0.9536104796968616</v>
       </c>
       <c r="V11">
-        <v>0.898496592059876</v>
+        <v>0.9536104796968616</v>
       </c>
       <c r="W11">
-        <v>0.898496592059876</v>
+        <v>0.9536104796968616</v>
       </c>
       <c r="X11">
-        <v>0.9310670808350693</v>
+        <v>0.9656208727684807</v>
       </c>
       <c r="Y11">
-        <v>0.9310670808350693</v>
+        <v>0.9656208727684807</v>
       </c>
       <c r="Z11">
-        <v>0.9310670808350693</v>
+        <v>0.9656208727684807</v>
       </c>
       <c r="AA11">
-        <v>0.9310670808350693</v>
+        <v>0.9656208727684807</v>
       </c>
       <c r="AB11">
-        <v>0.9787340694380851</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9934897509024786</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9934897509024786</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.6395266100970693</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5457922905305573</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>38</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5471704784007051</v>
       </c>
       <c r="F3">
-        <v>0.515351146992305</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>38</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5080404066164217</v>
       </c>
       <c r="F4">
-        <v>0.5167561579477593</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>38</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.6230186806708295</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5145727852265231</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>38</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5776857005201086</v>
       </c>
       <c r="F6">
-        <v>0.5187239528347021</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>38</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.6341062407624941</v>
+      </c>
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5949923036983662</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>38</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.576322943692692</v>
       </c>
       <c r="F8">
-        <v>0.6029701315889088</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>38</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5550357069099112</v>
       </c>
       <c r="F9">
-        <v>0.5850694223676747</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>38</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.6732947850628311</v>
+      </c>
+      <c r="F10">
         <v>14</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.6316621144998736</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>38</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.6984137062986256</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5413481823729858</v>
-      </c>
       <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>38</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.7903839588926932</v>
+      </c>
+      <c r="F2">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.74121874933566</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>38</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.7500528743605513</v>
+      </c>
+      <c r="F3">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7184106818289351</v>
-      </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>38</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7868574428372203</v>
       </c>
       <c r="F4">
-        <v>0.706255212436484</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>38</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.7703398245288177</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7102176186038669</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>38</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7586289442990988</v>
       </c>
       <c r="F6">
-        <v>0.7826833254290577</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>38</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9336139353055871</v>
+      </c>
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8591802621324764</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>38</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.770193749088891</v>
       </c>
       <c r="F8">
-        <v>0.7147187992769515</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>38</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7526031273155899</v>
       </c>
       <c r="F9">
-        <v>0.7716559897007605</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>38</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>0.7474860451730421</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7069389220667766</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>38</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7642788238639642</v>
       </c>
       <c r="F11">
-        <v>0.7672083333762471</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>38</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8225820719016196</v>
       </c>
       <c r="F2">
-        <v>0.8118987428390274</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>600</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>38</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9484515721490095</v>
+      </c>
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9052747759023926</v>
-      </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>38</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8477291291440936</v>
       </c>
       <c r="F4">
-        <v>0.8741600557429271</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>38</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.9335718826343387</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8779276690787604</v>
-      </c>
       <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>38</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8981224056226047</v>
       </c>
       <c r="F6">
-        <v>0.8174370599110317</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>38</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9336139353055871</v>
+      </c>
+      <c r="F7">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8591802621324764</v>
-      </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>38</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8040463924348672</v>
       </c>
       <c r="F8">
-        <v>0.877043381220616</v>
+        <v>17</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>38</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8963396887899638</v>
       </c>
       <c r="F9">
-        <v>0.8267383213498756</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>38</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <v>0.9262132721383491</v>
+      </c>
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8544745769563984</v>
-      </c>
       <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
         <v>17</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>38</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8321797245648804</v>
       </c>
       <c r="F11">
-        <v>0.8736258474321903</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>38</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.983532596854408</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9487362133023862</v>
-      </c>
       <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2">
         <v>18</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>38</v>
-      </c>
-      <c r="I2">
-        <v>600</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9484515721490095</v>
+      </c>
+      <c r="F3">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9052747759023926</v>
-      </c>
       <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
         <v>18</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>38</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9729061240105379</v>
       </c>
       <c r="F4">
-        <v>0.9021880536413459</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>38</v>
-      </c>
-      <c r="I4">
-        <v>600</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9335718826343387</v>
       </c>
       <c r="F5">
-        <v>0.9157507454947971</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>38</v>
-      </c>
-      <c r="I5">
-        <v>600</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9111648833871182</v>
       </c>
       <c r="F6">
-        <v>0.9001446608830912</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>600</v>
       </c>
       <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>38</v>
-      </c>
-      <c r="I6">
-        <v>600</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9336139353055871</v>
       </c>
       <c r="F7">
-        <v>0.9081927302733157</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>38</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9901262499697392</v>
       </c>
       <c r="F8">
-        <v>0.9053559047264197</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>38</v>
-      </c>
-      <c r="I8">
-        <v>600</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9460235545801561</v>
       </c>
       <c r="F9">
-        <v>0.9116776897406942</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>38</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9262132721383491</v>
       </c>
       <c r="F10">
-        <v>0.9103088359285159</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>38</v>
-      </c>
-      <c r="I10">
-        <v>600</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9536104796968616</v>
       </c>
       <c r="F11">
-        <v>0.9310670808350693</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>600</v>
       </c>
       <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>38</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
